--- a/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
+++ b/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-1.5.0-us-wipJ\InputData\elec\CCaMC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-2.0.0-us-wipF\InputData\elec\CCaMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_27396B66DF773B6F0D451177B561DB468CD1DB1F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D5AE304B-E2FE-4B02-987D-08B95421C4C0}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="14355" windowHeight="12150" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -21,7 +22,15 @@
     <sheet name="CCaMC-VOaMCpUC" sheetId="8" r:id="rId7"/>
     <sheet name="CCaMC-BCCpUC" sheetId="6" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -820,7 +829,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="9">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1735,234 +1744,234 @@
     </xf>
   </cellXfs>
   <cellStyles count="228">
-    <cellStyle name="20% - Accent1 2" xfId="16"/>
-    <cellStyle name="20% - Accent1 2 2" xfId="17"/>
-    <cellStyle name="20% - Accent1 2 2 2" xfId="151"/>
-    <cellStyle name="20% - Accent1 2 2 2 2" xfId="173"/>
-    <cellStyle name="20% - Accent1 2 2 2 2 2" xfId="217"/>
-    <cellStyle name="20% - Accent1 2 2 2 3" xfId="195"/>
-    <cellStyle name="20% - Accent1 2 2 3" xfId="162"/>
-    <cellStyle name="20% - Accent1 2 2 3 2" xfId="206"/>
-    <cellStyle name="20% - Accent1 2 2 4" xfId="184"/>
-    <cellStyle name="20% - Accent2 2" xfId="18"/>
-    <cellStyle name="20% - Accent2 2 2" xfId="19"/>
-    <cellStyle name="20% - Accent2 2 2 2" xfId="152"/>
-    <cellStyle name="20% - Accent2 2 2 2 2" xfId="174"/>
-    <cellStyle name="20% - Accent2 2 2 2 2 2" xfId="218"/>
-    <cellStyle name="20% - Accent2 2 2 2 3" xfId="196"/>
-    <cellStyle name="20% - Accent2 2 2 3" xfId="163"/>
-    <cellStyle name="20% - Accent2 2 2 3 2" xfId="207"/>
-    <cellStyle name="20% - Accent2 2 2 4" xfId="185"/>
-    <cellStyle name="20% - Accent3 2" xfId="20"/>
-    <cellStyle name="20% - Accent3 2 2" xfId="21"/>
-    <cellStyle name="20% - Accent3 2 2 2" xfId="153"/>
-    <cellStyle name="20% - Accent3 2 2 2 2" xfId="175"/>
-    <cellStyle name="20% - Accent3 2 2 2 2 2" xfId="219"/>
-    <cellStyle name="20% - Accent3 2 2 2 3" xfId="197"/>
-    <cellStyle name="20% - Accent3 2 2 3" xfId="164"/>
-    <cellStyle name="20% - Accent3 2 2 3 2" xfId="208"/>
-    <cellStyle name="20% - Accent3 2 2 4" xfId="186"/>
-    <cellStyle name="20% - Accent4 2" xfId="22"/>
-    <cellStyle name="20% - Accent4 2 2" xfId="23"/>
-    <cellStyle name="20% - Accent4 2 2 2" xfId="154"/>
-    <cellStyle name="20% - Accent4 2 2 2 2" xfId="176"/>
-    <cellStyle name="20% - Accent4 2 2 2 2 2" xfId="220"/>
-    <cellStyle name="20% - Accent4 2 2 2 3" xfId="198"/>
-    <cellStyle name="20% - Accent4 2 2 3" xfId="165"/>
-    <cellStyle name="20% - Accent4 2 2 3 2" xfId="209"/>
-    <cellStyle name="20% - Accent4 2 2 4" xfId="187"/>
-    <cellStyle name="Body: normal cell" xfId="4"/>
-    <cellStyle name="Calculated" xfId="24"/>
-    <cellStyle name="Comma 10" xfId="25"/>
-    <cellStyle name="Comma 10 2" xfId="155"/>
-    <cellStyle name="Comma 10 2 2" xfId="177"/>
-    <cellStyle name="Comma 10 2 2 2" xfId="221"/>
-    <cellStyle name="Comma 10 2 3" xfId="199"/>
-    <cellStyle name="Comma 10 3" xfId="166"/>
-    <cellStyle name="Comma 10 3 2" xfId="210"/>
-    <cellStyle name="Comma 10 4" xfId="188"/>
-    <cellStyle name="Comma 11" xfId="26"/>
-    <cellStyle name="Comma 2" xfId="27"/>
-    <cellStyle name="Comma 2 2" xfId="28"/>
-    <cellStyle name="Comma 2 2 2" xfId="156"/>
-    <cellStyle name="Comma 2 2 2 2" xfId="178"/>
-    <cellStyle name="Comma 2 2 2 2 2" xfId="222"/>
-    <cellStyle name="Comma 2 2 2 3" xfId="200"/>
-    <cellStyle name="Comma 2 2 3" xfId="167"/>
-    <cellStyle name="Comma 2 2 3 2" xfId="211"/>
-    <cellStyle name="Comma 2 2 4" xfId="189"/>
-    <cellStyle name="Comma 3" xfId="29"/>
-    <cellStyle name="Comma 3 2" xfId="30"/>
-    <cellStyle name="Comma 3 2 2" xfId="157"/>
-    <cellStyle name="Comma 3 2 2 2" xfId="179"/>
-    <cellStyle name="Comma 3 2 2 2 2" xfId="223"/>
-    <cellStyle name="Comma 3 2 2 3" xfId="201"/>
-    <cellStyle name="Comma 3 2 3" xfId="168"/>
-    <cellStyle name="Comma 3 2 3 2" xfId="212"/>
-    <cellStyle name="Comma 3 2 4" xfId="190"/>
-    <cellStyle name="Comma 4" xfId="31"/>
-    <cellStyle name="Comma 5" xfId="32"/>
-    <cellStyle name="Comma 6" xfId="33"/>
-    <cellStyle name="Comma 7" xfId="34"/>
-    <cellStyle name="Comma 8" xfId="35"/>
-    <cellStyle name="Comma 9" xfId="36"/>
-    <cellStyle name="Currency 2" xfId="37"/>
-    <cellStyle name="Currency 3" xfId="38"/>
-    <cellStyle name="Currency 4" xfId="39"/>
-    <cellStyle name="Currency 5" xfId="40"/>
-    <cellStyle name="Currency 6" xfId="41"/>
-    <cellStyle name="Currency 7" xfId="42"/>
-    <cellStyle name="Currency 8" xfId="43"/>
-    <cellStyle name="Currency 8 2" xfId="158"/>
-    <cellStyle name="Currency 8 2 2" xfId="180"/>
-    <cellStyle name="Currency 8 2 2 2" xfId="224"/>
-    <cellStyle name="Currency 8 2 3" xfId="202"/>
-    <cellStyle name="Currency 8 3" xfId="169"/>
-    <cellStyle name="Currency 8 3 2" xfId="213"/>
-    <cellStyle name="Currency 8 4" xfId="191"/>
+    <cellStyle name="20% - Accent1 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent1 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent1 2 2 2" xfId="151" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent1 2 2 2 2" xfId="173" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent1 2 2 2 2 2" xfId="217" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent1 2 2 2 3" xfId="195" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="20% - Accent1 2 2 3" xfId="162" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="20% - Accent1 2 2 3 2" xfId="206" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20% - Accent1 2 2 4" xfId="184" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="20% - Accent2 2 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="20% - Accent2 2 2 2" xfId="152" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="20% - Accent2 2 2 2 2" xfId="174" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="20% - Accent2 2 2 2 2 2" xfId="218" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="20% - Accent2 2 2 2 3" xfId="196" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="20% - Accent2 2 2 3" xfId="163" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="20% - Accent2 2 2 3 2" xfId="207" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="20% - Accent2 2 2 4" xfId="185" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="20% - Accent3 2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="20% - Accent3 2 2 2" xfId="153" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="20% - Accent3 2 2 2 2" xfId="175" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="20% - Accent3 2 2 2 2 2" xfId="219" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="20% - Accent3 2 2 2 3" xfId="197" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="20% - Accent3 2 2 3" xfId="164" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="20% - Accent3 2 2 3 2" xfId="208" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="20% - Accent3 2 2 4" xfId="186" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="20% - Accent4 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="20% - Accent4 2 2 2" xfId="154" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="20% - Accent4 2 2 2 2" xfId="176" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="20% - Accent4 2 2 2 2 2" xfId="220" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="20% - Accent4 2 2 2 3" xfId="198" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="20% - Accent4 2 2 3" xfId="165" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="20% - Accent4 2 2 3 2" xfId="209" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="20% - Accent4 2 2 4" xfId="187" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Calculated" xfId="24" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Comma 10" xfId="25" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Comma 10 2" xfId="155" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Comma 10 2 2" xfId="177" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Comma 10 2 2 2" xfId="221" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Comma 10 2 3" xfId="199" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Comma 10 3" xfId="166" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Comma 10 3 2" xfId="210" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Comma 10 4" xfId="188" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Comma 11" xfId="26" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Comma 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Comma 2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Comma 2 2 2" xfId="156" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Comma 2 2 2 2" xfId="178" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Comma 2 2 2 2 2" xfId="222" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Comma 2 2 2 3" xfId="200" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Comma 2 2 3" xfId="167" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Comma 2 2 3 2" xfId="211" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Comma 2 2 4" xfId="189" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Comma 3" xfId="29" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Comma 3 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Comma 3 2 2" xfId="157" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Comma 3 2 2 2" xfId="179" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Comma 3 2 2 2 2" xfId="223" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Comma 3 2 2 3" xfId="201" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Comma 3 2 3" xfId="168" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Comma 3 2 3 2" xfId="212" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Comma 3 2 4" xfId="190" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Comma 4" xfId="31" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Comma 5" xfId="32" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Comma 6" xfId="33" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Comma 7" xfId="34" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Comma 8" xfId="35" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Comma 9" xfId="36" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Currency 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Currency 3" xfId="38" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Currency 4" xfId="39" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Currency 5" xfId="40" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Currency 6" xfId="41" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Currency 7" xfId="42" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Currency 8" xfId="43" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Currency 8 2" xfId="158" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Currency 8 2 2" xfId="180" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Currency 8 2 2 2" xfId="224" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Currency 8 2 3" xfId="202" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Currency 8 3" xfId="169" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Currency 8 3 2" xfId="213" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Currency 8 4" xfId="191" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
-    <cellStyle name="Footnotes: all except top row" xfId="9"/>
-    <cellStyle name="Footnotes: top row" xfId="7"/>
-    <cellStyle name="Header: bottom row" xfId="2"/>
-    <cellStyle name="Header: top rows" xfId="10"/>
-    <cellStyle name="Heading" xfId="44"/>
-    <cellStyle name="Heading 2 2" xfId="45"/>
-    <cellStyle name="Heading2" xfId="46"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Footnotes: all except top row" xfId="9" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Header: bottom row" xfId="2" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Header: top rows" xfId="10" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Heading" xfId="44" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Heading 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Heading2" xfId="46" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
-    <cellStyle name="Hyperlink 10" xfId="47"/>
-    <cellStyle name="Hyperlink 10 2" xfId="48"/>
-    <cellStyle name="Hyperlink 10 3" xfId="49"/>
-    <cellStyle name="Hyperlink 11" xfId="50"/>
-    <cellStyle name="Hyperlink 11 2" xfId="51"/>
-    <cellStyle name="Hyperlink 11 3" xfId="52"/>
-    <cellStyle name="Hyperlink 12" xfId="53"/>
-    <cellStyle name="Hyperlink 12 2" xfId="54"/>
-    <cellStyle name="Hyperlink 12 3" xfId="55"/>
-    <cellStyle name="Hyperlink 13" xfId="56"/>
-    <cellStyle name="Hyperlink 13 2" xfId="57"/>
-    <cellStyle name="Hyperlink 13 3" xfId="58"/>
-    <cellStyle name="Hyperlink 14" xfId="59"/>
-    <cellStyle name="Hyperlink 14 2" xfId="60"/>
-    <cellStyle name="Hyperlink 14 3" xfId="61"/>
-    <cellStyle name="Hyperlink 15" xfId="62"/>
-    <cellStyle name="Hyperlink 15 2" xfId="63"/>
-    <cellStyle name="Hyperlink 15 3" xfId="64"/>
-    <cellStyle name="Hyperlink 16" xfId="65"/>
-    <cellStyle name="Hyperlink 16 2" xfId="66"/>
-    <cellStyle name="Hyperlink 16 3" xfId="67"/>
-    <cellStyle name="Hyperlink 17" xfId="68"/>
-    <cellStyle name="Hyperlink 17 2" xfId="69"/>
-    <cellStyle name="Hyperlink 17 3" xfId="70"/>
-    <cellStyle name="Hyperlink 18" xfId="71"/>
-    <cellStyle name="Hyperlink 18 2" xfId="72"/>
-    <cellStyle name="Hyperlink 18 3" xfId="73"/>
-    <cellStyle name="Hyperlink 19" xfId="74"/>
-    <cellStyle name="Hyperlink 19 2" xfId="75"/>
-    <cellStyle name="Hyperlink 19 3" xfId="76"/>
-    <cellStyle name="Hyperlink 2" xfId="11"/>
-    <cellStyle name="Hyperlink 2 2" xfId="78"/>
-    <cellStyle name="Hyperlink 2 3" xfId="79"/>
-    <cellStyle name="Hyperlink 2 4" xfId="77"/>
-    <cellStyle name="Hyperlink 20" xfId="80"/>
-    <cellStyle name="Hyperlink 20 2" xfId="81"/>
-    <cellStyle name="Hyperlink 20 3" xfId="82"/>
-    <cellStyle name="Hyperlink 21" xfId="83"/>
-    <cellStyle name="Hyperlink 21 2" xfId="84"/>
-    <cellStyle name="Hyperlink 21 3" xfId="85"/>
-    <cellStyle name="Hyperlink 22" xfId="86"/>
-    <cellStyle name="Hyperlink 22 2" xfId="87"/>
-    <cellStyle name="Hyperlink 22 3" xfId="88"/>
-    <cellStyle name="Hyperlink 23" xfId="89"/>
-    <cellStyle name="Hyperlink 23 2" xfId="90"/>
-    <cellStyle name="Hyperlink 23 3" xfId="91"/>
-    <cellStyle name="Hyperlink 24" xfId="92"/>
-    <cellStyle name="Hyperlink 25" xfId="93"/>
-    <cellStyle name="Hyperlink 26" xfId="94"/>
-    <cellStyle name="Hyperlink 27" xfId="95"/>
-    <cellStyle name="Hyperlink 28" xfId="96"/>
-    <cellStyle name="Hyperlink 29" xfId="97"/>
-    <cellStyle name="Hyperlink 3" xfId="98"/>
-    <cellStyle name="Hyperlink 3 2" xfId="99"/>
-    <cellStyle name="Hyperlink 3 3" xfId="100"/>
-    <cellStyle name="Hyperlink 30" xfId="101"/>
-    <cellStyle name="Hyperlink 31" xfId="102"/>
-    <cellStyle name="Hyperlink 32" xfId="103"/>
-    <cellStyle name="Hyperlink 33" xfId="104"/>
-    <cellStyle name="Hyperlink 33 2" xfId="105"/>
-    <cellStyle name="Hyperlink 33 3" xfId="106"/>
-    <cellStyle name="Hyperlink 34" xfId="107"/>
-    <cellStyle name="Hyperlink 34 2" xfId="108"/>
-    <cellStyle name="Hyperlink 34 3" xfId="109"/>
-    <cellStyle name="Hyperlink 34 4" xfId="110"/>
-    <cellStyle name="Hyperlink 34 5" xfId="111"/>
-    <cellStyle name="Hyperlink 4" xfId="112"/>
-    <cellStyle name="Hyperlink 4 2" xfId="113"/>
-    <cellStyle name="Hyperlink 4 3" xfId="114"/>
-    <cellStyle name="Hyperlink 5" xfId="115"/>
-    <cellStyle name="Hyperlink 5 2" xfId="116"/>
-    <cellStyle name="Hyperlink 5 3" xfId="117"/>
-    <cellStyle name="Hyperlink 6" xfId="118"/>
-    <cellStyle name="Hyperlink 6 2" xfId="119"/>
-    <cellStyle name="Hyperlink 6 3" xfId="120"/>
-    <cellStyle name="Hyperlink 7" xfId="121"/>
-    <cellStyle name="Hyperlink 7 2" xfId="122"/>
-    <cellStyle name="Hyperlink 7 3" xfId="123"/>
-    <cellStyle name="Hyperlink 8" xfId="124"/>
-    <cellStyle name="Hyperlink 8 2" xfId="125"/>
-    <cellStyle name="Hyperlink 8 3" xfId="126"/>
-    <cellStyle name="Hyperlink 9" xfId="127"/>
-    <cellStyle name="Hyperlink 9 2" xfId="128"/>
-    <cellStyle name="Hyperlink 9 3" xfId="129"/>
-    <cellStyle name="Input 2" xfId="130"/>
-    <cellStyle name="Linked" xfId="131"/>
+    <cellStyle name="Hyperlink 10" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Hyperlink 10 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Hyperlink 10 3" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Hyperlink 11" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Hyperlink 11 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Hyperlink 11 3" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Hyperlink 12" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Hyperlink 12 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Hyperlink 12 3" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Hyperlink 13" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Hyperlink 13 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Hyperlink 13 3" xfId="58" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Hyperlink 14" xfId="59" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Hyperlink 14 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Hyperlink 14 3" xfId="61" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Hyperlink 15" xfId="62" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Hyperlink 15 2" xfId="63" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Hyperlink 15 3" xfId="64" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Hyperlink 16" xfId="65" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Hyperlink 16 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Hyperlink 16 3" xfId="67" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Hyperlink 17" xfId="68" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Hyperlink 17 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Hyperlink 17 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Hyperlink 18" xfId="71" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Hyperlink 18 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Hyperlink 18 3" xfId="73" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Hyperlink 19" xfId="74" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Hyperlink 19 2" xfId="75" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Hyperlink 19 3" xfId="76" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Hyperlink 2 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Hyperlink 2 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Hyperlink 2 4" xfId="77" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Hyperlink 20" xfId="80" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Hyperlink 20 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Hyperlink 20 3" xfId="82" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Hyperlink 21" xfId="83" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Hyperlink 21 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Hyperlink 21 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Hyperlink 22" xfId="86" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Hyperlink 22 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Hyperlink 22 3" xfId="88" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Hyperlink 23" xfId="89" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Hyperlink 23 2" xfId="90" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Hyperlink 23 3" xfId="91" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Hyperlink 24" xfId="92" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Hyperlink 25" xfId="93" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Hyperlink 26" xfId="94" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Hyperlink 27" xfId="95" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Hyperlink 28" xfId="96" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Hyperlink 29" xfId="97" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Hyperlink 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Hyperlink 3 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Hyperlink 3 3" xfId="100" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="Hyperlink 30" xfId="101" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="Hyperlink 31" xfId="102" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Hyperlink 32" xfId="103" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Hyperlink 33" xfId="104" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="Hyperlink 33 2" xfId="105" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="Hyperlink 33 3" xfId="106" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="Hyperlink 34" xfId="107" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="Hyperlink 34 2" xfId="108" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="Hyperlink 34 3" xfId="109" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="Hyperlink 34 4" xfId="110" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="Hyperlink 34 5" xfId="111" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="Hyperlink 4" xfId="112" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="Hyperlink 4 2" xfId="113" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="Hyperlink 4 3" xfId="114" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="Hyperlink 5" xfId="115" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="Hyperlink 5 2" xfId="116" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="Hyperlink 5 3" xfId="117" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="Hyperlink 6" xfId="118" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="Hyperlink 6 2" xfId="119" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="Hyperlink 6 3" xfId="120" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="Hyperlink 7" xfId="121" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="Hyperlink 7 2" xfId="122" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="Hyperlink 7 3" xfId="123" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="Hyperlink 8" xfId="124" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="Hyperlink 8 2" xfId="125" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="Hyperlink 8 3" xfId="126" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="Hyperlink 9" xfId="127" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="Hyperlink 9 2" xfId="128" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="Hyperlink 9 3" xfId="129" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="Input 2" xfId="130" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="Linked" xfId="131" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="15"/>
-    <cellStyle name="Normal 2 2" xfId="14"/>
-    <cellStyle name="Normal 2 2 2" xfId="132"/>
-    <cellStyle name="Normal 2 2 2 2" xfId="159"/>
-    <cellStyle name="Normal 2 2 2 2 2" xfId="181"/>
-    <cellStyle name="Normal 2 2 2 2 2 2" xfId="225"/>
-    <cellStyle name="Normal 2 2 2 2 3" xfId="203"/>
-    <cellStyle name="Normal 2 2 2 3" xfId="170"/>
-    <cellStyle name="Normal 2 2 2 3 2" xfId="214"/>
-    <cellStyle name="Normal 2 2 2 4" xfId="192"/>
-    <cellStyle name="Normal 3" xfId="133"/>
-    <cellStyle name="Normal 4" xfId="134"/>
-    <cellStyle name="Normal 5" xfId="135"/>
-    <cellStyle name="Normal 6" xfId="136"/>
-    <cellStyle name="Normal 6 2" xfId="160"/>
-    <cellStyle name="Normal 6 2 2" xfId="182"/>
-    <cellStyle name="Normal 6 2 2 2" xfId="226"/>
-    <cellStyle name="Normal 6 2 3" xfId="204"/>
-    <cellStyle name="Normal 6 3" xfId="171"/>
-    <cellStyle name="Normal 6 3 2" xfId="215"/>
-    <cellStyle name="Normal 6 4" xfId="193"/>
-    <cellStyle name="Normal 7" xfId="137"/>
-    <cellStyle name="Normal 8" xfId="138"/>
-    <cellStyle name="Normal Small" xfId="139"/>
-    <cellStyle name="Parent row" xfId="3"/>
-    <cellStyle name="Percent 2" xfId="140"/>
-    <cellStyle name="Percent 2 2" xfId="141"/>
-    <cellStyle name="Percent 2 3" xfId="142"/>
-    <cellStyle name="Percent 2 4" xfId="161"/>
-    <cellStyle name="Percent 2 4 2" xfId="183"/>
-    <cellStyle name="Percent 2 4 2 2" xfId="227"/>
-    <cellStyle name="Percent 2 4 3" xfId="205"/>
-    <cellStyle name="Percent 2 5" xfId="172"/>
-    <cellStyle name="Percent 2 5 2" xfId="216"/>
-    <cellStyle name="Percent 2 6" xfId="194"/>
-    <cellStyle name="Percent 3" xfId="143"/>
-    <cellStyle name="Percent 3 2" xfId="144"/>
-    <cellStyle name="Results" xfId="145"/>
-    <cellStyle name="Section Break" xfId="12"/>
-    <cellStyle name="Section Break: parent row" xfId="13"/>
-    <cellStyle name="Table title" xfId="1"/>
-    <cellStyle name="Title 2" xfId="146"/>
-    <cellStyle name="Title 3" xfId="147"/>
-    <cellStyle name="Unit" xfId="148"/>
-    <cellStyle name="UserInput" xfId="149"/>
-    <cellStyle name="Variable" xfId="150"/>
+    <cellStyle name="Normal 2" xfId="15" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="Normal 2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="132" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="159" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="Normal 2 2 2 2 2" xfId="181" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="Normal 2 2 2 2 2 2" xfId="225" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="Normal 2 2 2 2 3" xfId="203" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="Normal 2 2 2 3" xfId="170" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="Normal 2 2 2 3 2" xfId="214" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="Normal 2 2 2 4" xfId="192" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="Normal 3" xfId="133" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="Normal 4" xfId="134" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="Normal 5" xfId="135" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="Normal 6" xfId="136" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="Normal 6 2" xfId="160" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="Normal 6 2 2" xfId="182" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="Normal 6 2 2 2" xfId="226" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="Normal 6 2 3" xfId="204" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="Normal 6 3" xfId="171" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="Normal 6 3 2" xfId="215" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="Normal 6 4" xfId="193" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="Normal 7" xfId="137" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="Normal 8" xfId="138" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="Normal Small" xfId="139" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="Percent 2" xfId="140" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="Percent 2 2" xfId="141" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="Percent 2 3" xfId="142" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="Percent 2 4" xfId="161" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="Percent 2 4 2" xfId="183" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="Percent 2 4 2 2" xfId="227" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="Percent 2 4 3" xfId="205" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="Percent 2 5" xfId="172" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="Percent 2 5 2" xfId="216" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="Percent 2 6" xfId="194" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="Percent 3" xfId="143" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="Percent 3 2" xfId="144" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="Results" xfId="145" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="Section Break" xfId="12" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="Section Break: parent row" xfId="13" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="Table title" xfId="1" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="Title 2" xfId="146" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="Title 3" xfId="147" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="Unit" xfId="148" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="UserInput" xfId="149" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="Variable" xfId="150" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -2013,11 +2022,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Table Style 1" pivot="0" count="2">
+    <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="3"/>
       <tableStyleElement type="headerRow" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -2109,6 +2118,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2144,6 +2170,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2319,7 +2362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3350,10 +3393,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B23" r:id="rId1" display="http://rredc.nrel.gov/solar/calculators/pvwatts/system.html"/>
-    <hyperlink ref="B16" r:id="rId2"/>
-    <hyperlink ref="D16" r:id="rId3"/>
-    <hyperlink ref="B9" r:id="rId4"/>
+    <hyperlink ref="B23" r:id="rId1" display="http://rredc.nrel.gov/solar/calculators/pvwatts/system.html" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B16" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D16" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
@@ -3361,7 +3404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3810,7 +3853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3878,7 +3921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4651,7 +4694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AJ72"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -10576,14 +10619,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10872,7 +10915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -11164,13 +11207,13 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -13472,6 +13515,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -13705,32 +13766,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08CEEDCB-921F-4AFD-BB2E-366B27A3D5A8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4053284-7C58-45AC-9554-C89BE7A530D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FA2DBE0-7CBC-4A8F-8992-60B1CB41C39E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FA2DBE0-7CBC-4A8F-8992-60B1CB41C39E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4053284-7C58-45AC-9554-C89BE7A530D4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08CEEDCB-921F-4AFD-BB2E-366B27A3D5A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
+++ b/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-2.0.0-us-wipF\InputData\elec\CCaMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="8_{49BBDC4E-F4A1-4D4E-9667-F7F2C2294AED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{659B969C-114C-4C24-B49C-715FC6726FF6}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="8_{49BBDC4E-F4A1-4D4E-9667-F7F2C2294AED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3FF8CC6B-EB11-4C87-B3A4-8C7B1D6D7500}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="CCaMC-VOaMCpUC" sheetId="8" r:id="rId11"/>
     <sheet name="CCaMC-BCCpUC" sheetId="6" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="367">
+  <si>
+    <t>CCaMC BAU Construction Cost per Unit Capacity</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
   <si>
     <t>CCaMC Annual Fixed O&amp;M Cost per Unit Capacity</t>
   </si>
@@ -50,1404 +54,61 @@
     <t>Sources:</t>
   </si>
   <si>
+    <t>Capital Costs, Fixed O&amp;M, Variable O&amp;M (Except Hydro, Geothermal and Solar thermal)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>EIA Costs</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>National Renewable Energy Lab</t>
+  </si>
+  <si>
     <t>Energy Information Administration</t>
   </si>
   <si>
+    <t>Electricity Capacity Expansion Modeling, Analysis, and Visualization: A Summary of Selected High-Renewable Modeling Experiences</t>
+  </si>
+  <si>
     <t>Assumptions to Annual Energy Outlook 2015</t>
   </si>
   <si>
-    <t>Electricity Market Module, Page 105, Table 8.2</t>
-  </si>
-  <si>
-    <t>National Renewable Energy Lab</t>
-  </si>
-  <si>
-    <t>Annual Technology Baseline (ATB) Spreadshett - 2016 Final</t>
-  </si>
-  <si>
-    <t>http://www.nrel.gov/docs/fy16osti/66944-DA.xlsm</t>
-  </si>
-  <si>
-    <t>Notes:</t>
-  </si>
-  <si>
-    <t>Currency Year Adjustment</t>
-  </si>
-  <si>
-    <t>We adjust 2014 dollars to 2012 dollars using the following conversion factor:</t>
-  </si>
-  <si>
-    <t>See "cpi.xlsx" in the InputData folder for source information.</t>
-  </si>
-  <si>
-    <t>Model Subscript</t>
-  </si>
-  <si>
-    <t>Model Power Plant Quality</t>
-  </si>
-  <si>
-    <t>EIA Technology Name</t>
-  </si>
-  <si>
-    <t>Tot 2014 Capital Cost (2013 $/kW)</t>
-  </si>
-  <si>
-    <t>Variable O&amp;M (2013 $/MWh)</t>
-  </si>
-  <si>
-    <t>Fixed O&amp;M (2013 $/kW/yr)</t>
-  </si>
-  <si>
-    <t>hard coal</t>
-  </si>
-  <si>
-    <t>preexisting retiring</t>
-  </si>
-  <si>
-    <t>Scrubbed Coal</t>
-  </si>
-  <si>
-    <t>Integrated Coal Gassification Combined Cycle (IGCC)</t>
-  </si>
-  <si>
-    <t>newly built</t>
-  </si>
-  <si>
-    <t>IGCC with Carbon Sequestration</t>
-  </si>
-  <si>
-    <t>natural gas nonpeaker</t>
-  </si>
-  <si>
-    <t>Conventional Gas/Oil Combined Cycle</t>
-  </si>
-  <si>
-    <t>Advanced Gas/Oil Combined Cycle</t>
-  </si>
-  <si>
-    <t>Advanced Combined Cycle with Carbon Sequestration</t>
-  </si>
-  <si>
-    <t>natural gas peaker</t>
-  </si>
-  <si>
-    <t>Conventional Combustion Turbine</t>
-  </si>
-  <si>
-    <t>Advanced Combustion Turbine</t>
-  </si>
-  <si>
-    <t>Fuel Cells</t>
-  </si>
-  <si>
-    <t>nuclear</t>
-  </si>
-  <si>
-    <t>both</t>
-  </si>
-  <si>
-    <t>Advanced Nuclear</t>
-  </si>
-  <si>
-    <t>Distributed Generation - Base</t>
-  </si>
-  <si>
-    <t>Distributed Generation - Peak</t>
-  </si>
-  <si>
-    <t>biomass</t>
-  </si>
-  <si>
-    <t>Biomass</t>
-  </si>
-  <si>
-    <t>geothermal</t>
-  </si>
-  <si>
-    <t>Geothermal</t>
-  </si>
-  <si>
-    <t>Municipal Solid Waste</t>
-  </si>
-  <si>
-    <t>hydro</t>
-  </si>
-  <si>
-    <t>Conventional Hydropower</t>
-  </si>
-  <si>
-    <t>onshore wind</t>
-  </si>
-  <si>
-    <t>Onshore Wind</t>
-  </si>
-  <si>
-    <t>offshore wind</t>
-  </si>
-  <si>
-    <t>Offshore Wind</t>
-  </si>
-  <si>
-    <t>solar thermal</t>
-  </si>
-  <si>
-    <t>Solar Thermal</t>
-  </si>
-  <si>
-    <t>solar PV</t>
-  </si>
-  <si>
-    <t>Solar Photovoltaic</t>
-  </si>
-  <si>
-    <t>We do not use the values in red because they exceed real-world observed costs.  We use other sources for</t>
-  </si>
-  <si>
-    <t>wind and solar PV capital costs.</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Overnight Capital Cost</t>
-  </si>
-  <si>
-    <t>Model Electricity Source</t>
-  </si>
-  <si>
-    <t>NREL Electricity Source</t>
-  </si>
-  <si>
-    <t>coal</t>
-  </si>
-  <si>
-    <t>Coal-CCS-AvgCF-Low</t>
-  </si>
-  <si>
-    <t>Coal-CCS-AvgCF-Mid</t>
-  </si>
-  <si>
-    <t>Coal-CCS-AvgCF-High</t>
-  </si>
-  <si>
-    <t>Coal-CCS-HighCF-Low</t>
-  </si>
-  <si>
-    <t>Coal-CCS-HighCF-Mid</t>
-  </si>
-  <si>
-    <t>Coal-CCS-HighCF-High</t>
-  </si>
-  <si>
-    <t>Gas-CC-HighCF - Low</t>
-  </si>
-  <si>
-    <t>Gas-CC-HighCF - Mid</t>
-  </si>
-  <si>
-    <t>Gas-CC-HighCF - High</t>
-  </si>
-  <si>
-    <t>NPD 1 - Low</t>
-  </si>
-  <si>
-    <t>NPD 1 - Mid</t>
-  </si>
-  <si>
-    <t>NPD 1 - High</t>
-  </si>
-  <si>
-    <t>NPD 2 - Low</t>
-  </si>
-  <si>
-    <t>NPD 2 - Mid</t>
-  </si>
-  <si>
-    <t>NPD 2 - High</t>
-  </si>
-  <si>
-    <t>NPD 3 - Low</t>
-  </si>
-  <si>
-    <t>NPD 3 - Mid</t>
-  </si>
-  <si>
-    <t>NPD 3 - High</t>
-  </si>
-  <si>
-    <t>NPD 4 - Low</t>
-  </si>
-  <si>
-    <t>NPD 4 - Mid</t>
-  </si>
-  <si>
-    <t>NPD 4 - High</t>
-  </si>
-  <si>
-    <t>NSD 1 - Low</t>
-  </si>
-  <si>
-    <t>NSD 1 - Mid</t>
-  </si>
-  <si>
-    <t>NSD 1 - High</t>
-  </si>
-  <si>
-    <t>NSD 2 - Low</t>
-  </si>
-  <si>
-    <t>NSD 2 - Mid</t>
-  </si>
-  <si>
-    <t>NSD 2 - High</t>
-  </si>
-  <si>
-    <t>NSD 3 - Low</t>
-  </si>
-  <si>
-    <t>NSD 3 - Mid</t>
-  </si>
-  <si>
-    <t>NSD 3 - High</t>
-  </si>
-  <si>
-    <t>NSD 4 - Low</t>
-  </si>
-  <si>
-    <t>NSD 4 - Mid</t>
-  </si>
-  <si>
-    <t>NSD 4 - High</t>
-  </si>
-  <si>
-    <t>Nuclear - Mid</t>
-  </si>
-  <si>
-    <t>6 hrs TES - Class 1 - Low</t>
-  </si>
-  <si>
-    <t>6 hrs TES - Class 1 - Mid</t>
-  </si>
-  <si>
-    <t>6 hrs TES - Class 1 - High</t>
-  </si>
-  <si>
-    <t>6 hrs TES - Class 3 - Low</t>
-  </si>
-  <si>
-    <t>6 hrs TES - Class 3 - Mid</t>
-  </si>
-  <si>
-    <t>6 hrs TES - Class 3 - High</t>
-  </si>
-  <si>
-    <t>6 hrs TES - Class 5 - Low</t>
-  </si>
-  <si>
-    <t>6 hrs TES - Class 5 - Mid</t>
-  </si>
-  <si>
-    <t>6 hrs TES - Class 5 - High</t>
-  </si>
-  <si>
-    <t>10hrs TES - Class 1 - Low</t>
-  </si>
-  <si>
-    <t>10hrs TES - Class 1 - Mid</t>
-  </si>
-  <si>
-    <t>10hrs TES - Class 1 - High</t>
-  </si>
-  <si>
-    <t>10hrs TES - Class 3 - Low</t>
-  </si>
-  <si>
-    <t>10hrs TES - Class 3 - Mid</t>
-  </si>
-  <si>
-    <t>10hrs TES - Class 3 - High</t>
-  </si>
-  <si>
-    <t>10hrs TES - Class 5 - Low</t>
-  </si>
-  <si>
-    <t>10hrs TES - Class 5 - Mid</t>
-  </si>
-  <si>
-    <t>10hrs TES - Class 5 - High</t>
-  </si>
-  <si>
-    <t>Dedicated - Low</t>
-  </si>
-  <si>
-    <t>Dedicated - Mid</t>
-  </si>
-  <si>
-    <t>Dedicated - High</t>
-  </si>
-  <si>
-    <t>CofireOld - Low</t>
-  </si>
-  <si>
-    <t>CofireOld - Mid</t>
-  </si>
-  <si>
-    <t>CofireOld - High</t>
-  </si>
-  <si>
-    <t>CofireNew - Low</t>
-  </si>
-  <si>
-    <t>CofireNew - Mid</t>
-  </si>
-  <si>
-    <t>CofireNew - High</t>
-  </si>
-  <si>
-    <t>Hydro / Flash - Low</t>
-  </si>
-  <si>
-    <t>Hydro / Flash - Mid</t>
-  </si>
-  <si>
-    <t>Hydro / Flash - High</t>
-  </si>
-  <si>
-    <t>Hydro / Binary - Low</t>
-  </si>
-  <si>
-    <t>Hydro / Binary - Mid</t>
-  </si>
-  <si>
-    <t>Hydro / Binary - High</t>
-  </si>
-  <si>
-    <t>NF EGS / Flash - Low</t>
-  </si>
-  <si>
-    <t>NF EGS / Flash - Mid</t>
-  </si>
-  <si>
-    <t>NF EGS / Flash - High</t>
-  </si>
-  <si>
-    <t>NF EGS / Binary - Low</t>
-  </si>
-  <si>
-    <t>NF EGS / Binary - Mid</t>
-  </si>
-  <si>
-    <t>NF EGS / Binary - High</t>
-  </si>
-  <si>
-    <t>Deep EGS / Flash - Low</t>
-  </si>
-  <si>
-    <t>Deep EGS / Flash - Mid</t>
-  </si>
-  <si>
-    <t>Deep EGS / Flash - High</t>
-  </si>
-  <si>
-    <t>Deep EGS / Binary - Low</t>
-  </si>
-  <si>
-    <t>Deep EGS / Binary - Mid</t>
-  </si>
-  <si>
-    <t>Deep EGS / Binary - High</t>
-  </si>
-  <si>
-    <t>Gas-CT-AvgCF - Low</t>
-  </si>
-  <si>
-    <t>Gas-CT-AvgCF - Mid</t>
-  </si>
-  <si>
-    <t>Gas-CT-AvgCF - High</t>
-  </si>
-  <si>
-    <t>TRG 1 - Low</t>
-  </si>
-  <si>
-    <t>TRG 1 - Mid</t>
-  </si>
-  <si>
-    <t>TRG 1 - High</t>
-  </si>
-  <si>
-    <t>TRG 2 - Low</t>
-  </si>
-  <si>
-    <t>TRG 2 - Mid</t>
-  </si>
-  <si>
-    <t>TRG 2 - High</t>
-  </si>
-  <si>
-    <t>TRG 3 - Low</t>
-  </si>
-  <si>
-    <t>TRG 3 - Mid</t>
-  </si>
-  <si>
-    <t>TRG 3 - High</t>
-  </si>
-  <si>
-    <t>TRG 4 - Low</t>
-  </si>
-  <si>
-    <t>TRG 4 - Mid</t>
-  </si>
-  <si>
-    <t>TRG 4 - High</t>
-  </si>
-  <si>
-    <t>TRG 5 - Low</t>
-  </si>
-  <si>
-    <t>TRG 5 - Mid</t>
-  </si>
-  <si>
-    <t>TRG 5 - High</t>
-  </si>
-  <si>
-    <t>TRG 6 - Low</t>
-  </si>
-  <si>
-    <t>TRG 6 - Mid</t>
-  </si>
-  <si>
-    <t>TRG 6 - High</t>
-  </si>
-  <si>
-    <t>TRG 7 - Low</t>
-  </si>
-  <si>
-    <t>TRG 7 - Mid</t>
-  </si>
-  <si>
-    <t>TRG 7 - High</t>
-  </si>
-  <si>
-    <t>TRG 8 - Low</t>
-  </si>
-  <si>
-    <t>TRG 8 - Mid</t>
-  </si>
-  <si>
-    <t>TRG 8 - High</t>
-  </si>
-  <si>
-    <t>TRG 9 - Low</t>
-  </si>
-  <si>
-    <t>TRG 9 - Mid</t>
-  </si>
-  <si>
-    <t>TRG 9 - High</t>
-  </si>
-  <si>
-    <t>TRG 10 - Low</t>
-  </si>
-  <si>
-    <t>TRG 10 - Mid</t>
-  </si>
-  <si>
-    <t>TRG 10 - High</t>
-  </si>
-  <si>
-    <t>Fixed O&amp;M ($/MW)</t>
-  </si>
-  <si>
-    <t>preexisting nonretiring</t>
-  </si>
-  <si>
-    <t>petroleum</t>
-  </si>
-  <si>
-    <t>lignite</t>
-  </si>
-  <si>
-    <t>Variable O&amp;M ($/MWh)</t>
-  </si>
-  <si>
-    <t>Hard Coal ($/MW)</t>
-  </si>
-  <si>
-    <t>Natural Gas Nonpeaker ($/MW)</t>
-  </si>
-  <si>
-    <t>Nuclear ($/MW)</t>
-  </si>
-  <si>
-    <t>Hydro ($/MW)</t>
-  </si>
-  <si>
-    <t>Onshore Wind ($/MW)</t>
-  </si>
-  <si>
-    <t>Solar PV ($/MW)</t>
-  </si>
-  <si>
-    <t>Solar Thermal ($/MW)</t>
-  </si>
-  <si>
-    <t>Biomass ($/MW)</t>
-  </si>
-  <si>
-    <t>Geothermal ($/MW)</t>
-  </si>
-  <si>
-    <t>Petroleum ($/MW)</t>
-  </si>
-  <si>
-    <t>Natural Gas Peaker ($/MW)</t>
-  </si>
-  <si>
-    <t>Lignite ($/MW)</t>
-  </si>
-  <si>
-    <t>Offshore Wind ($/MW)</t>
+    <t>https://www.nrel.gov/docs/fy16osti/64831.pdf</t>
   </si>
   <si>
     <t>https://www.eia.gov/forecasts/aeo/assumptions/pdf/electricity.pdf</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>CCaMC BAU Construction Cost per Unit Capacity</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> OPEX (USD/MW/yr)</t>
-  </si>
-  <si>
-    <t>Capacity factor (%)</t>
-  </si>
-  <si>
-    <t>LCOE (USD/MWh)</t>
-  </si>
-  <si>
-    <t>CAPEX (USDm/MW)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.08-4.55</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>44000-45000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>24-28</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>123-248</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wind-Onshore</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wind-Offshore</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Solar-PV</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas-CC</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal-new</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Biomass</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nuclear</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAPEX($/kW)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATB</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>EDO</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fixed Annual O&amp;M($/kW)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATB</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Variable O&amp;M($/MWh)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>EDO</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Figure 6.2 Total installed cost ranges and weighted averages for hydropower projects by country/region, 2010-2016</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Weighted average 2016 USD/kW</t>
-  </si>
-  <si>
-    <t>5th percentile</t>
-  </si>
-  <si>
-    <t>95th percentile</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Central America and the Caribbean</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Eurasia</t>
-  </si>
-  <si>
-    <t>Europe</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Middle East</t>
-  </si>
-  <si>
-    <t>North America</t>
-  </si>
-  <si>
-    <t>Oceania</t>
-  </si>
-  <si>
-    <t>Other Asia</t>
-  </si>
-  <si>
-    <t>Other South America</t>
-  </si>
-  <si>
-    <t>Figure 8.1 Geothermal power total installed costs by project, technology and capacity, 2007-2020</t>
-  </si>
-  <si>
-    <t>MAX (2016 USD/kW)</t>
-  </si>
-  <si>
-    <t>MIN (2016 USD/kW)</t>
-  </si>
-  <si>
-    <t>Solar thermal (parabolic trough)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Page 141, para 1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>We adjust 2016 dollars to 2012 dollars using the following conversion factor:</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Technology</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Overnight Cost($/W)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>BAU/BAU with Carbon Cap/IPCC Target</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Low Cost Renewables</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Onshore Wind</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offshore Wind</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Central PV</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Commercial PV</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Residential PV</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSP without Storage</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSP with Storage</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>onshore wind</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>offshore wind</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>solar pv</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>solar thermal</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF1396D8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Table 1b. Estimated LCOE (simple average of regional values) for new generation resources, for plants</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF1396D8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>entering service in 2022</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>   U.S. Average LCOE (2015 $/MWh) for Plants Entering Service in 2022                                                 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Capacity</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Levelized</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Variable
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>O&amp;M</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Total</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Total LCOE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Factor</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Capital</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Fixed</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(including</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Transmission</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>System</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>including</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Plant Type</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(%)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Cost</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>O&amp;M</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>fuel)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Investment</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>LCOE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tax Credit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tax Credit</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Dispatchable Technologies</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Advanced Coal with CCS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFAEAEAE"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>N/A</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Natural Gas-fired</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Conventional Combined Cycle</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Advanced Combined Cycle</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Advanced CC with CCS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Conventional Combustion</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>         Turbine                                                                                                                                                                                                                                                   </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Advanced Combustion Turbine</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Advanced Nuclear</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Geothermal</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Biomass</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Non-Dispatchable Technologies</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Wind</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Wind – Offshore</t>
-    </r>
-  </si>
-  <si>
-    <t>   Solar PV</t>
-  </si>
-  <si>
-    <t>   Solar Therma</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Hydroelectric</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
-    <t>Variable Share of Annual O&amp;M</t>
-  </si>
-  <si>
-    <t>Capacity Factor</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Annual Variable O&amp;M (2013$/MW)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Annual Fixed O&amp;M (2013$/MW)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Figure 8.2 Capacity factors of new geothermal power plants by technology and project size, 2007-2020</t>
-  </si>
-  <si>
-    <t>MAX capacity factor</t>
-  </si>
-  <si>
-    <t>MIN capacity factor</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Large</t>
-  </si>
-  <si>
-    <t>Small</t>
-  </si>
-  <si>
-    <t>Installed Cost (USD/kW)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hydro</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Geothermal</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Capacity Factor</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>O&amp;M Cost (USD/kW/y)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Figure 6.5 Hydropower project capacity factors and capacity weighted averages for large and small hydropower projects by country/region, 2010-2016</t>
-  </si>
-  <si>
-    <t>Weighted average capacity factor %</t>
-  </si>
-  <si>
-    <t>Capital Costs, Fixed O&amp;M, Variable O&amp;M (Except Hydro, Geothermal and Solar thermal)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>Page 20, Table 2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.nrel.gov/docs/fy16osti/64831.pdf</t>
-  </si>
-  <si>
-    <t>Electricity Capacity Expansion Modeling, Analysis, and Visualization: A Summary of Selected High-Renewable Modeling Experiences</t>
-  </si>
-  <si>
-    <t>According to the NREL report,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"the CREAMEDO data are representative of the cost of technologies projected to be installed in China between 2010 and 2019",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>so we assume the data applies for both the start year and the present.</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Renewable power generation costs in 2017</t>
-  </si>
-  <si>
-    <t>Details in "Hydro and Geothermal" tab</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <t>Electricity Market Module, Page 105, Table 8.2</t>
   </si>
   <si>
     <t>Hydro and Geothermal Costs</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Solar Thermal Costs</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>World Energy Perspective: Cost of Energy Technologies</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.worldenergy.org/wp-content/uploads/2013/09/WEC_J1143_CostofTECHNOLOGIES_021013_WEB_Final.pdf</t>
-  </si>
-  <si>
-    <t>EIA Costs</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Levelized Cost and Levelized Avoided Cost of New Generation Resources in the Annual Energy Outlook 2016</t>
-  </si>
-  <si>
-    <t>https://www.eia.gov/outlooks/aeo/pdf/electricity_generation.pdf</t>
-  </si>
-  <si>
-    <t>Table 1b.</t>
-  </si>
-  <si>
     <t>EIA LCOE</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRENA</t>
+  </si>
+  <si>
+    <t>Renewable power generation costs in 2017</t>
+  </si>
+  <si>
+    <t>Levelized Cost and Levelized Avoided Cost of New Generation Resources in the Annual Energy Outlook 2016</t>
+  </si>
+  <si>
+    <t>http://www.irena.org/-/media/Files/IRENA/Agency/Publication/2018/Jan/IRENA_2017_Power_Costs_2018.pdf</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/outlooks/aeo/pdf/electricity_generation.pdf</t>
   </si>
   <si>
     <r>
@@ -1475,18 +136,46 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.irena.org/-/media/Files/IRENA/Agency/Publication/2018/Jan/IRENA_2017_Power_Costs_2018.pdf</t>
+    <t>Table 1b.</t>
+  </si>
+  <si>
+    <t>Details in "Hydro and Geothermal" tab</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Cost Improvement Rate (Except Wind and Solar)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>Solar Thermal Costs</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>World Energy Council</t>
+  </si>
+  <si>
+    <t>Annual Technology Baseline (ATB) Spreadshett - 2016 Final</t>
+  </si>
+  <si>
+    <t>World Energy Perspective: Cost of Energy Technologies</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.nrel.gov/docs/fy16osti/66944-DA.xlsm</t>
+  </si>
+  <si>
+    <t>https://www.worldenergy.org/wp-content/uploads/2013/09/WEC_J1143_CostofTECHNOLOGIES_021013_WEB_Final.pdf</t>
+  </si>
+  <si>
+    <t>Page 26, Table 7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>Cost Improvement Rate (Wind and Solar)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Page 26, Table 7</t>
+    <t>Gang He, Anne-Perrine Avrin, James H. Nelson, et al</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1494,7 +183,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Gang He, Anne-Perrine Avrin, James H. Nelson, et al</t>
+    <t>https://pubs.acs.org/doi/suppl/10.1021/acs.est.6b01345/suppl_file/es6b01345_si_001.pdf</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1502,8 +191,15 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>https://pubs.acs.org/doi/suppl/10.1021/acs.est.6b01345/suppl_file/es6b01345_si_001.pdf</t>
+    <t>Natural gas peaker, Petroleum &amp; Lignite</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>See notes below</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notes:</t>
   </si>
   <si>
     <t>Our general approach is to take start year capital costs and</t>
@@ -1514,6 +210,22 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>According to the NREL report,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"the CREAMEDO data are representative of the cost of technologies projected to be installed in China between 2010 and 2019",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>so we assume the data applies for both the start year and the present.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">For hydro, geothermal and solar thermal, the O&amp;M costs are levelized. </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">To estimate the share of fixed and variable costs, we look at the share in the US for new power plants </t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1522,54 +234,1315 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>For geothermal, we use the global estimate as costs in China.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>For natural gas peaker, we multifly the results of peaker by the ratio of their costs in the US for estimation.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>For lignite, we assume the values the same as hard coal, although their variable costs can be different.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">For petroleum, we cannot find related research (possibly because petro power plants are </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>are rare in China: https://www.iea.org/statistics/?country=CHINA&amp;year=2016&amp;category=Electricity&amp;indicator=undefined&amp;mode=chart&amp;categoryBrowse=true&amp;dataTable=ELECTRICITYANDHEAT),</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>so we substitute the cells with the US data.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Currency Year Adjustment</t>
+  </si>
+  <si>
+    <t>We adjust 2016 dollars to 2012 dollars using the following conversion factor:</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>We adjust 2014 dollars to 2012 dollars using the following conversion factor:</t>
+  </si>
+  <si>
+    <t>See "cpi.xlsx" in the InputData folder for source information.</t>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAPEX($/kW)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fixed Annual O&amp;M($/kW)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Variable O&amp;M($/MWh)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATB</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDO</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind-Onshore</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind-Offshore</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solar-PV</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas-CC</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal-new</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Biomass</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nuclear</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Installed Cost (USD/kW)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>O&amp;M Cost (USD/kW/y)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capacity Factor</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>Note on O&amp;M Cost</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>Hydro</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">Page 122, para 2 (we average the world's range from USD 20-60 kW/y) </t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>For geothermal, we use the global estimate as costs in China.</t>
+    <t>Geothermal</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">For hydro, geothermal and solar thermal, the O&amp;M costs are levelized. </t>
+    <t>Page 141, para 1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">For petroleum, we cannot find related research (possibly because petro power plants are </t>
+    <t>Figure 6.2 Total installed cost ranges and weighted averages for hydropower projects by country/region, 2010-2016</t>
+  </si>
+  <si>
+    <t>Figure 8.1 Geothermal power total installed costs by project, technology and capacity, 2007-2020</t>
+  </si>
+  <si>
+    <t>Weighted average 2016 USD/kW</t>
+  </si>
+  <si>
+    <t>5th percentile</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>95th percentile</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>MAX (2016 USD/kW)</t>
+  </si>
+  <si>
+    <t>MIN (2016 USD/kW)</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Central America and the Caribbean</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Eurasia</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Middle East</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>Oceania</t>
+  </si>
+  <si>
+    <t>Other Asia</t>
+  </si>
+  <si>
+    <t>Other South America</t>
+  </si>
+  <si>
+    <t>Figure 6.5 Hydropower project capacity factors and capacity weighted averages for large and small hydropower projects by country/region, 2010-2016</t>
+  </si>
+  <si>
+    <t>Figure 8.2 Capacity factors of new geothermal power plants by technology and project size, 2007-2020</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Weighted average capacity factor %</t>
+  </si>
+  <si>
+    <t>MAX capacity factor</t>
+  </si>
+  <si>
+    <t>MIN capacity factor</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>CAPEX (USDm/MW)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>For natural gas peaker, we multifly the results of peaker by the ratio of their costs in the US for estimation.</t>
+    <t xml:space="preserve"> OPEX (USD/MW/yr)</t>
+  </si>
+  <si>
+    <t>Capacity factor (%)</t>
+  </si>
+  <si>
+    <t>LCOE (USD/MWh)</t>
+  </si>
+  <si>
+    <t>Solar thermal (parabolic trough)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>For lignite, we assume the values the same as hard coal, although their variable costs can be different.</t>
+    <t>3.08-4.55</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>are rare in China: https://www.iea.org/statistics/?country=CHINA&amp;year=2016&amp;category=Electricity&amp;indicator=undefined&amp;mode=chart&amp;categoryBrowse=true&amp;dataTable=ELECTRICITYANDHEAT),</t>
+    <t>44000-45000</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>so we substitute the cells with the US data.</t>
+    <t>24-28</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Natural gas peaker, Petroleum &amp; Lignite</t>
+    <t>123-248</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>See notes below</t>
+    <t>Model Subscript</t>
+  </si>
+  <si>
+    <t>Model Power Plant Quality</t>
+  </si>
+  <si>
+    <t>EIA Technology Name</t>
+  </si>
+  <si>
+    <t>Tot 2014 Capital Cost (2013 $/kW)</t>
+  </si>
+  <si>
+    <t>Variable O&amp;M (2013 $/MWh)</t>
+  </si>
+  <si>
+    <t>Fixed O&amp;M (2013 $/kW/yr)</t>
+  </si>
+  <si>
+    <t>hard coal</t>
+  </si>
+  <si>
+    <t>preexisting retiring</t>
+  </si>
+  <si>
+    <t>Scrubbed Coal</t>
+  </si>
+  <si>
+    <t>Integrated Coal Gassification Combined Cycle (IGCC)</t>
+  </si>
+  <si>
+    <t>newly built</t>
+  </si>
+  <si>
+    <t>IGCC with Carbon Sequestration</t>
+  </si>
+  <si>
+    <t>natural gas nonpeaker</t>
+  </si>
+  <si>
+    <t>Conventional Gas/Oil Combined Cycle</t>
+  </si>
+  <si>
+    <t>Advanced Gas/Oil Combined Cycle</t>
+  </si>
+  <si>
+    <t>Advanced Combined Cycle with Carbon Sequestration</t>
+  </si>
+  <si>
+    <t>natural gas peaker</t>
+  </si>
+  <si>
+    <t>Conventional Combustion Turbine</t>
+  </si>
+  <si>
+    <t>Advanced Combustion Turbine</t>
+  </si>
+  <si>
+    <t>Fuel Cells</t>
+  </si>
+  <si>
+    <t>nuclear</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>Advanced Nuclear</t>
+  </si>
+  <si>
+    <t>Distributed Generation - Base</t>
+  </si>
+  <si>
+    <t>Distributed Generation - Peak</t>
+  </si>
+  <si>
+    <t>biomass</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>geothermal</t>
+  </si>
+  <si>
+    <t>Geothermal</t>
+  </si>
+  <si>
+    <t>Municipal Solid Waste</t>
+  </si>
+  <si>
+    <t>hydro</t>
+  </si>
+  <si>
+    <t>Conventional Hydropower</t>
+  </si>
+  <si>
+    <t>onshore wind</t>
+  </si>
+  <si>
+    <t>Onshore Wind</t>
+  </si>
+  <si>
+    <t>offshore wind</t>
+  </si>
+  <si>
+    <t>Offshore Wind</t>
+  </si>
+  <si>
+    <t>solar thermal</t>
+  </si>
+  <si>
+    <t>Solar Thermal</t>
+  </si>
+  <si>
+    <t>solar PV</t>
+  </si>
+  <si>
+    <t>Solar Photovoltaic</t>
+  </si>
+  <si>
+    <t>We do not use the values in red because they exceed real-world observed costs.  We use other sources for</t>
+  </si>
+  <si>
+    <t>wind and solar PV capital costs.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF1396D8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Table 1b. Estimated LCOE (simple average of regional values) for new generation resources, for plants</t>
+    </r>
+  </si>
+  <si>
+    <t>Annual Variable O&amp;M (2013$/MW)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>IRENA</t>
-  </si>
-  <si>
-    <t>World Energy Council</t>
+    <t>Annual Fixed O&amp;M (2013$/MW)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Variable Share of Annual O&amp;M</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF1396D8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>entering service in 2022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>   U.S. Average LCOE (2015 $/MWh) for Plants Entering Service in 2022                                                 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Capacity</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Levelized</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Variable
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>O&amp;M</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Total</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Total LCOE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Factor</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Capital</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fixed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(including</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Transmission</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>System</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>including</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Plant Type</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cost</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>O&amp;M</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>fuel)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Investment</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>LCOE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tax Credit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tax Credit</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Dispatchable Technologies</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Advanced Coal with CCS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAEAEAE"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>N/A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Natural Gas-fired</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Conventional Combined Cycle</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Advanced Combined Cycle</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Advanced CC with CCS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Conventional Combustion</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>         Turbine                                                                                                                                                                                                                                                   </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Advanced Combustion Turbine</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Advanced Nuclear</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Geothermal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Biomass</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Non-Dispatchable Technologies</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Wind</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Wind – Offshore</t>
+    </r>
+  </si>
+  <si>
+    <t>   Solar PV</t>
+  </si>
+  <si>
+    <t>   Solar Therma</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Hydroelectric</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <t>Overnight Capital Cost</t>
+  </si>
+  <si>
+    <t>Model Electricity Source</t>
+  </si>
+  <si>
+    <t>NREL Electricity Source</t>
+  </si>
+  <si>
+    <t>coal</t>
+  </si>
+  <si>
+    <t>Coal-CCS-AvgCF-Low</t>
+  </si>
+  <si>
+    <t>Coal-CCS-AvgCF-Mid</t>
+  </si>
+  <si>
+    <t>Coal-CCS-AvgCF-High</t>
+  </si>
+  <si>
+    <t>Coal-CCS-HighCF-Low</t>
+  </si>
+  <si>
+    <t>Coal-CCS-HighCF-Mid</t>
+  </si>
+  <si>
+    <t>Coal-CCS-HighCF-High</t>
+  </si>
+  <si>
+    <t>Gas-CC-HighCF - Low</t>
+  </si>
+  <si>
+    <t>Gas-CC-HighCF - Mid</t>
+  </si>
+  <si>
+    <t>Gas-CC-HighCF - High</t>
+  </si>
+  <si>
+    <t>NPD 1 - Low</t>
+  </si>
+  <si>
+    <t>NPD 1 - Mid</t>
+  </si>
+  <si>
+    <t>NPD 1 - High</t>
+  </si>
+  <si>
+    <t>NPD 2 - Low</t>
+  </si>
+  <si>
+    <t>NPD 2 - Mid</t>
+  </si>
+  <si>
+    <t>NPD 2 - High</t>
+  </si>
+  <si>
+    <t>NPD 3 - Low</t>
+  </si>
+  <si>
+    <t>NPD 3 - Mid</t>
+  </si>
+  <si>
+    <t>NPD 3 - High</t>
+  </si>
+  <si>
+    <t>NPD 4 - Low</t>
+  </si>
+  <si>
+    <t>NPD 4 - Mid</t>
+  </si>
+  <si>
+    <t>NPD 4 - High</t>
+  </si>
+  <si>
+    <t>NSD 1 - Low</t>
+  </si>
+  <si>
+    <t>NSD 1 - Mid</t>
+  </si>
+  <si>
+    <t>NSD 1 - High</t>
+  </si>
+  <si>
+    <t>NSD 2 - Low</t>
+  </si>
+  <si>
+    <t>NSD 2 - Mid</t>
+  </si>
+  <si>
+    <t>NSD 2 - High</t>
+  </si>
+  <si>
+    <t>NSD 3 - Low</t>
+  </si>
+  <si>
+    <t>NSD 3 - Mid</t>
+  </si>
+  <si>
+    <t>NSD 3 - High</t>
+  </si>
+  <si>
+    <t>NSD 4 - Low</t>
+  </si>
+  <si>
+    <t>NSD 4 - Mid</t>
+  </si>
+  <si>
+    <t>NSD 4 - High</t>
+  </si>
+  <si>
+    <t>Nuclear - Mid</t>
+  </si>
+  <si>
+    <t>6 hrs TES - Class 1 - Low</t>
+  </si>
+  <si>
+    <t>6 hrs TES - Class 1 - Mid</t>
+  </si>
+  <si>
+    <t>6 hrs TES - Class 1 - High</t>
+  </si>
+  <si>
+    <t>6 hrs TES - Class 3 - Low</t>
+  </si>
+  <si>
+    <t>6 hrs TES - Class 3 - Mid</t>
+  </si>
+  <si>
+    <t>6 hrs TES - Class 3 - High</t>
+  </si>
+  <si>
+    <t>6 hrs TES - Class 5 - Low</t>
+  </si>
+  <si>
+    <t>6 hrs TES - Class 5 - Mid</t>
+  </si>
+  <si>
+    <t>6 hrs TES - Class 5 - High</t>
+  </si>
+  <si>
+    <t>10hrs TES - Class 1 - Low</t>
+  </si>
+  <si>
+    <t>10hrs TES - Class 1 - Mid</t>
+  </si>
+  <si>
+    <t>10hrs TES - Class 1 - High</t>
+  </si>
+  <si>
+    <t>10hrs TES - Class 3 - Low</t>
+  </si>
+  <si>
+    <t>10hrs TES - Class 3 - Mid</t>
+  </si>
+  <si>
+    <t>10hrs TES - Class 3 - High</t>
+  </si>
+  <si>
+    <t>10hrs TES - Class 5 - Low</t>
+  </si>
+  <si>
+    <t>10hrs TES - Class 5 - Mid</t>
+  </si>
+  <si>
+    <t>10hrs TES - Class 5 - High</t>
+  </si>
+  <si>
+    <t>Dedicated - Low</t>
+  </si>
+  <si>
+    <t>Dedicated - Mid</t>
+  </si>
+  <si>
+    <t>Dedicated - High</t>
+  </si>
+  <si>
+    <t>CofireOld - Low</t>
+  </si>
+  <si>
+    <t>CofireOld - Mid</t>
+  </si>
+  <si>
+    <t>CofireOld - High</t>
+  </si>
+  <si>
+    <t>CofireNew - Low</t>
+  </si>
+  <si>
+    <t>CofireNew - Mid</t>
+  </si>
+  <si>
+    <t>CofireNew - High</t>
+  </si>
+  <si>
+    <t>Hydro / Flash - Low</t>
+  </si>
+  <si>
+    <t>Hydro / Flash - Mid</t>
+  </si>
+  <si>
+    <t>Hydro / Flash - High</t>
+  </si>
+  <si>
+    <t>Hydro / Binary - Low</t>
+  </si>
+  <si>
+    <t>Hydro / Binary - Mid</t>
+  </si>
+  <si>
+    <t>Hydro / Binary - High</t>
+  </si>
+  <si>
+    <t>NF EGS / Flash - Low</t>
+  </si>
+  <si>
+    <t>NF EGS / Flash - Mid</t>
+  </si>
+  <si>
+    <t>NF EGS / Flash - High</t>
+  </si>
+  <si>
+    <t>NF EGS / Binary - Low</t>
+  </si>
+  <si>
+    <t>NF EGS / Binary - Mid</t>
+  </si>
+  <si>
+    <t>NF EGS / Binary - High</t>
+  </si>
+  <si>
+    <t>Deep EGS / Flash - Low</t>
+  </si>
+  <si>
+    <t>Deep EGS / Flash - Mid</t>
+  </si>
+  <si>
+    <t>Deep EGS / Flash - High</t>
+  </si>
+  <si>
+    <t>Deep EGS / Binary - Low</t>
+  </si>
+  <si>
+    <t>Deep EGS / Binary - Mid</t>
+  </si>
+  <si>
+    <t>Deep EGS / Binary - High</t>
+  </si>
+  <si>
+    <t>Gas-CT-AvgCF - Low</t>
+  </si>
+  <si>
+    <t>Gas-CT-AvgCF - Mid</t>
+  </si>
+  <si>
+    <t>Gas-CT-AvgCF - High</t>
+  </si>
+  <si>
+    <t>TRG 1 - Low</t>
+  </si>
+  <si>
+    <t>TRG 1 - Mid</t>
+  </si>
+  <si>
+    <t>TRG 1 - High</t>
+  </si>
+  <si>
+    <t>TRG 2 - Low</t>
+  </si>
+  <si>
+    <t>TRG 2 - Mid</t>
+  </si>
+  <si>
+    <t>TRG 2 - High</t>
+  </si>
+  <si>
+    <t>TRG 3 - Low</t>
+  </si>
+  <si>
+    <t>TRG 3 - Mid</t>
+  </si>
+  <si>
+    <t>TRG 3 - High</t>
+  </si>
+  <si>
+    <t>TRG 4 - Low</t>
+  </si>
+  <si>
+    <t>TRG 4 - Mid</t>
+  </si>
+  <si>
+    <t>TRG 4 - High</t>
+  </si>
+  <si>
+    <t>TRG 5 - Low</t>
+  </si>
+  <si>
+    <t>TRG 5 - Mid</t>
+  </si>
+  <si>
+    <t>TRG 5 - High</t>
+  </si>
+  <si>
+    <t>TRG 6 - Low</t>
+  </si>
+  <si>
+    <t>TRG 6 - Mid</t>
+  </si>
+  <si>
+    <t>TRG 6 - High</t>
+  </si>
+  <si>
+    <t>TRG 7 - Low</t>
+  </si>
+  <si>
+    <t>TRG 7 - Mid</t>
+  </si>
+  <si>
+    <t>TRG 7 - High</t>
+  </si>
+  <si>
+    <t>TRG 8 - Low</t>
+  </si>
+  <si>
+    <t>TRG 8 - Mid</t>
+  </si>
+  <si>
+    <t>TRG 8 - High</t>
+  </si>
+  <si>
+    <t>TRG 9 - Low</t>
+  </si>
+  <si>
+    <t>TRG 9 - Mid</t>
+  </si>
+  <si>
+    <t>TRG 9 - High</t>
+  </si>
+  <si>
+    <t>TRG 10 - Low</t>
+  </si>
+  <si>
+    <t>TRG 10 - Mid</t>
+  </si>
+  <si>
+    <t>TRG 10 - High</t>
+  </si>
+  <si>
+    <t>Technology</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overnight Cost($/W)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>onshore wind</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>offshore wind</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>solar pv</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>solar thermal</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAU/BAU with Carbon Cap/IPCC Target</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low Cost Renewables</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Onshore Wind</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offshore Wind</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Central PV</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commercial PV</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Residential PV</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSP without Storage</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSP with Storage</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">construction </t>
+  </si>
+  <si>
+    <t>billion HKD</t>
+  </si>
+  <si>
+    <t>excahneg rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operation </t>
+  </si>
+  <si>
+    <t>billion HKD/year</t>
+  </si>
+  <si>
+    <t>billion USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capacity </t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cost </t>
+  </si>
+  <si>
+    <t>Fixed O&amp;M ($/MW)</t>
+  </si>
+  <si>
+    <t>preexisting nonretiring</t>
+  </si>
+  <si>
+    <t>petroleum</t>
+  </si>
+  <si>
+    <t>lignite</t>
   </si>
   <si>
     <t>crude oil</t>
@@ -1581,31 +1554,46 @@
     <t>municipal solid waste</t>
   </si>
   <si>
-    <t xml:space="preserve">construction </t>
-  </si>
-  <si>
-    <t>billion HKD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operation </t>
-  </si>
-  <si>
-    <t>excahneg rate</t>
-  </si>
-  <si>
-    <t>billion USD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">capacity </t>
-  </si>
-  <si>
-    <t>MW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cost </t>
-  </si>
-  <si>
-    <t>billion HKD/year</t>
+    <t>Variable O&amp;M ($/MWh)</t>
+  </si>
+  <si>
+    <t>Hard Coal ($/MW)</t>
+  </si>
+  <si>
+    <t>Natural Gas Nonpeaker ($/MW)</t>
+  </si>
+  <si>
+    <t>Nuclear ($/MW)</t>
+  </si>
+  <si>
+    <t>Hydro ($/MW)</t>
+  </si>
+  <si>
+    <t>Onshore Wind ($/MW)</t>
+  </si>
+  <si>
+    <t>Solar PV ($/MW)</t>
+  </si>
+  <si>
+    <t>Solar Thermal ($/MW)</t>
+  </si>
+  <si>
+    <t>Biomass ($/MW)</t>
+  </si>
+  <si>
+    <t>Geothermal ($/MW)</t>
+  </si>
+  <si>
+    <t>Petroleum ($/MW)</t>
+  </si>
+  <si>
+    <t>Natural Gas Peaker ($/MW)</t>
+  </si>
+  <si>
+    <t>Lignite ($/MW)</t>
+  </si>
+  <si>
+    <t>Offshore Wind ($/MW)</t>
   </si>
 </sst>
 </file>
@@ -2061,7 +2049,7 @@
     </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2238,6 +2226,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="6" borderId="0" xfId="15" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2681,7 +2672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -2699,28 +2690,28 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>314</v>
+        <v>4</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>327</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2728,7 +2719,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2741,26 +2732,26 @@
     </row>
     <row r="8" spans="1:4" ht="30">
       <c r="B8" s="53" t="s">
-        <v>317</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="3" t="s">
-        <v>316</v>
+        <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>315</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2769,18 +2760,18 @@
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="6" t="s">
-        <v>323</v>
+        <v>14</v>
       </c>
       <c r="D12" s="65" t="s">
-        <v>331</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" t="s">
-        <v>356</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2793,31 +2784,31 @@
     </row>
     <row r="15" spans="1:4" ht="30">
       <c r="B15" s="2" t="s">
-        <v>321</v>
+        <v>17</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>328</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30">
       <c r="B16" s="66" t="s">
-        <v>333</v>
+        <v>19</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>329</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="27.95" customHeight="1">
       <c r="B17" s="67" t="s">
-        <v>332</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>330</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="B18" t="s">
-        <v>322</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2827,11 +2818,11 @@
     <row r="20" spans="1:4">
       <c r="A20" s="5"/>
       <c r="B20" s="6" t="s">
-        <v>334</v>
+        <v>24</v>
       </c>
       <c r="C20"/>
       <c r="D20" s="6" t="s">
-        <v>324</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2841,7 +2832,7 @@
       </c>
       <c r="C21"/>
       <c r="D21" t="s">
-        <v>357</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2857,40 +2848,40 @@
     <row r="23" spans="1:4">
       <c r="A23" s="5"/>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C23"/>
       <c r="D23" t="s">
-        <v>325</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C24"/>
       <c r="D24" s="66" t="s">
-        <v>326</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="5"/>
       <c r="C25"/>
       <c r="D25" t="s">
-        <v>336</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="5"/>
       <c r="B26" s="6" t="s">
-        <v>335</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="5"/>
       <c r="B27" s="2" t="s">
-        <v>338</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2902,19 +2893,19 @@
     <row r="29" spans="1:4">
       <c r="A29" s="5"/>
       <c r="B29" s="2" t="s">
-        <v>337</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="5"/>
       <c r="B30" s="3" t="s">
-        <v>340</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="5"/>
       <c r="B31" t="s">
-        <v>339</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2924,13 +2915,13 @@
     <row r="33" spans="1:11">
       <c r="A33" s="5"/>
       <c r="B33" s="65" t="s">
-        <v>354</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="5"/>
       <c r="B34" t="s">
-        <v>355</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2939,7 +2930,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="5" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D36"/>
       <c r="E36" s="8"/>
@@ -2952,7 +2943,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="2" t="s">
-        <v>341</v>
+        <v>40</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="8"/>
@@ -2965,7 +2956,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="2" t="s">
-        <v>342</v>
+        <v>41</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="8"/>
@@ -2987,7 +2978,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="2" t="s">
-        <v>318</v>
+        <v>42</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="8"/>
@@ -3000,7 +2991,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="2" t="s">
-        <v>319</v>
+        <v>43</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="8"/>
@@ -3013,7 +3004,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="2" t="s">
-        <v>320</v>
+        <v>44</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="8"/>
@@ -3036,7 +3027,7 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="2" t="s">
-        <v>348</v>
+        <v>45</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
@@ -3049,7 +3040,7 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="2" t="s">
-        <v>343</v>
+        <v>46</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
@@ -3062,7 +3053,7 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="2" t="s">
-        <v>344</v>
+        <v>47</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
@@ -3085,7 +3076,7 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="2" t="s">
-        <v>347</v>
+        <v>48</v>
       </c>
       <c r="D48"/>
       <c r="E48"/>
@@ -3098,7 +3089,7 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="70" t="s">
-        <v>350</v>
+        <v>49</v>
       </c>
       <c r="D49"/>
       <c r="E49"/>
@@ -3111,7 +3102,7 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="70" t="s">
-        <v>351</v>
+        <v>50</v>
       </c>
       <c r="D50"/>
       <c r="E50"/>
@@ -3124,7 +3115,7 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="70" t="s">
-        <v>349</v>
+        <v>51</v>
       </c>
       <c r="D51"/>
       <c r="E51"/>
@@ -3137,7 +3128,7 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="71" t="s">
-        <v>352</v>
+        <v>52</v>
       </c>
       <c r="D52"/>
       <c r="E52"/>
@@ -3150,7 +3141,7 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="70" t="s">
-        <v>353</v>
+        <v>53</v>
       </c>
       <c r="D53"/>
       <c r="E53"/>
@@ -3183,7 +3174,7 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="5" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="8"/>
@@ -3196,7 +3187,7 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>237</v>
+        <v>55</v>
       </c>
       <c r="B57" s="7"/>
       <c r="D57" s="5"/>
@@ -3224,7 +3215,7 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B59" s="7"/>
       <c r="D59" s="5"/>
@@ -3264,7 +3255,7 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B62" s="7"/>
       <c r="D62" s="5"/>
@@ -3673,7 +3664,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3686,21 +3677,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>172</v>
+        <v>346</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>173</v>
+        <v>347</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="B2" s="4">
         <f>EDO!E7*About!A60*1000</f>
@@ -3717,7 +3708,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="B3" s="4">
         <f>EDO!E6*About!A60*1000</f>
@@ -3734,7 +3725,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="B4" s="4">
         <f>EDO!E9*About!A60*1000</f>
@@ -3751,7 +3742,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="B5" s="4">
         <f>'Hydro and Geothermal'!C2*(1-'O&amp;M Share'!R2)*About!A58*1000</f>
@@ -3768,7 +3759,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="B6" s="4">
         <f>EDO!E3*About!A60*1000</f>
@@ -3785,7 +3776,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>155</v>
       </c>
       <c r="B7" s="4">
         <f>EDO!E5*About!A60*1000</f>
@@ -3802,7 +3793,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="B8" s="4">
         <f>'Solar thermal'!C3*(1-'O&amp;M Share'!R3)</f>
@@ -3819,7 +3810,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="B9" s="4">
         <f>EDO!E8*About!A60*1000</f>
@@ -3836,7 +3827,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="B10" s="4">
         <f>'Hydro and Geothermal'!C3*(1-'O&amp;M Share'!R4)*About!A58*1000</f>
@@ -3853,7 +3844,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>348</v>
       </c>
       <c r="B11" s="4">
         <v>7340</v>
@@ -3867,7 +3858,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="B12" s="4">
         <f>B3*('EIA Costs'!$F$9/'EIA Costs'!$F$6)</f>
@@ -3884,7 +3875,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>349</v>
       </c>
       <c r="B13" s="4">
         <f>B2</f>
@@ -3901,7 +3892,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="B14" s="4">
         <f>EDO!E4*About!A60*1000</f>
@@ -3918,7 +3909,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B15" s="4">
         <f>B11</f>
@@ -3934,7 +3925,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B16" s="4">
         <f>B11</f>
@@ -3950,7 +3941,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B17" s="75">
         <f>'MSW HK'!N9</f>
@@ -3979,7 +3970,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3990,21 +3981,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>176</v>
+        <v>353</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>173</v>
+        <v>347</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>208</v>
       </c>
       <c r="B2" s="9">
         <f>EDO!G7*About!A60</f>
@@ -4021,7 +4012,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="B3" s="9">
         <f>EDO!G6*About!A60</f>
@@ -4038,7 +4029,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="B4" s="9">
         <f>EDO!G9*About!A60</f>
@@ -4055,7 +4046,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="B5" s="9">
         <f>('Hydro and Geothermal'!C2*'O&amp;M Share'!R2)/(8760*'Hydro and Geothermal'!D2)*About!A58*1000</f>
@@ -4072,7 +4063,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="B6" s="4">
         <f>EDO!G3*About!A60</f>
@@ -4089,7 +4080,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>155</v>
       </c>
       <c r="B7" s="4">
         <f>EDO!G5*About!A60</f>
@@ -4106,7 +4097,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="B8" s="4">
         <v>0</v>
@@ -4122,7 +4113,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="B9" s="9">
         <f>EDO!G8*About!A60</f>
@@ -4139,7 +4130,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="B10" s="4">
         <f>('Hydro and Geothermal'!C3*'O&amp;M Share'!R4)/(8760*'Hydro and Geothermal'!D3)*About!A58*1000</f>
@@ -4156,7 +4147,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>348</v>
       </c>
       <c r="B11" s="69">
         <v>15.44</v>
@@ -4170,7 +4161,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="B12" s="69">
         <f>B3*('EIA Costs'!$E$9/'EIA Costs'!$E$6)</f>
@@ -4187,7 +4178,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>349</v>
       </c>
       <c r="B13" s="69">
         <f>B2</f>
@@ -4204,7 +4195,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="B14">
         <f>EDO!G4*About!A60</f>
@@ -4221,7 +4212,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B15" s="9">
         <f>B11</f>
@@ -4238,7 +4229,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B16" s="9">
         <f>B12</f>
@@ -4255,7 +4246,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B17">
         <v>8.49</v>
@@ -4281,8 +4272,8 @@
   </sheetPr>
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -4305,55 +4296,55 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="60" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="B1" s="60" t="s">
-        <v>177</v>
+        <v>354</v>
       </c>
       <c r="C1" s="60" t="s">
-        <v>178</v>
+        <v>355</v>
       </c>
       <c r="D1" s="60" t="s">
-        <v>179</v>
+        <v>356</v>
       </c>
       <c r="E1" s="60" t="s">
-        <v>180</v>
+        <v>357</v>
       </c>
       <c r="F1" s="60" t="s">
-        <v>181</v>
+        <v>358</v>
       </c>
       <c r="G1" s="60" t="s">
-        <v>182</v>
+        <v>359</v>
       </c>
       <c r="H1" s="60" t="s">
-        <v>183</v>
+        <v>360</v>
       </c>
       <c r="I1" s="60" t="s">
-        <v>184</v>
+        <v>361</v>
       </c>
       <c r="J1" s="60" t="s">
-        <v>185</v>
+        <v>362</v>
       </c>
       <c r="K1" s="60" t="s">
-        <v>186</v>
+        <v>363</v>
       </c>
       <c r="L1" s="60" t="s">
-        <v>187</v>
+        <v>364</v>
       </c>
       <c r="M1" s="60" t="s">
-        <v>188</v>
+        <v>365</v>
       </c>
       <c r="N1" s="60" t="s">
-        <v>189</v>
+        <v>366</v>
       </c>
       <c r="O1" s="60" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="P1" s="60" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="Q1" s="60" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -6764,46 +6755,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="76" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1" s="76" t="s">
-        <v>208</v>
-      </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76" t="s">
-        <v>211</v>
-      </c>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76" t="s">
-        <v>213</v>
-      </c>
-      <c r="G1" s="76"/>
+      <c r="A1" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="77"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="76"/>
+      <c r="A2" s="77"/>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>210</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>212</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>210</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>212</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
-        <v>214</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>64</v>
       </c>
       <c r="B3">
         <v>1827</v>
@@ -6826,7 +6817,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>65</v>
       </c>
       <c r="B4">
         <v>6340</v>
@@ -6849,7 +6840,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>66</v>
       </c>
       <c r="B5">
         <v>2647</v>
@@ -6872,7 +6863,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>67</v>
       </c>
       <c r="B6">
         <v>1021</v>
@@ -6895,7 +6886,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>205</v>
+        <v>68</v>
       </c>
       <c r="B7">
         <v>3446</v>
@@ -6918,7 +6909,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>206</v>
+        <v>69</v>
       </c>
       <c r="B8">
         <v>4278</v>
@@ -6941,7 +6932,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>207</v>
+        <v>70</v>
       </c>
       <c r="B9">
         <v>6482</v>
@@ -6992,21 +6983,21 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
-        <v>307</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>311</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
-        <v>310</v>
+        <v>73</v>
       </c>
       <c r="E1" t="s">
-        <v>345</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>308</v>
+        <v>75</v>
       </c>
       <c r="B2" s="4">
         <f>B12</f>
@@ -7020,12 +7011,12 @@
         <v>0.45928878900000003</v>
       </c>
       <c r="E2" t="s">
-        <v>346</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>309</v>
+        <v>77</v>
       </c>
       <c r="B3" s="4">
         <f>AVERAGE(J13:K13)</f>
@@ -7039,7 +7030,7 @@
         <v>0.73885440000000002</v>
       </c>
       <c r="E3" t="s">
-        <v>236</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
@@ -7048,13 +7039,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="59" t="s">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="I6" s="13" t="s">
-        <v>232</v>
+        <v>80</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
@@ -7062,10 +7053,10 @@
     <row r="7" spans="1:11" ht="28.5">
       <c r="A7" s="13"/>
       <c r="B7" s="14" t="s">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>218</v>
+        <v>82</v>
       </c>
       <c r="D7" s="13"/>
       <c r="I7" s="13"/>
@@ -7074,7 +7065,7 @@
     </row>
     <row r="8" spans="1:11" ht="57">
       <c r="A8" s="14" t="s">
-        <v>216</v>
+        <v>83</v>
       </c>
       <c r="B8" s="15">
         <v>1800.529977397</v>
@@ -7083,21 +7074,21 @@
         <v>932</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>219</v>
+        <v>84</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>233</v>
+        <v>86</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>234</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="13" t="s">
-        <v>220</v>
+        <v>88</v>
       </c>
       <c r="B9" s="15">
         <v>1738.0151519389999</v>
@@ -7120,7 +7111,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="13" t="s">
-        <v>221</v>
+        <v>89</v>
       </c>
       <c r="B10" s="15">
         <v>2900.1499567679998</v>
@@ -7143,7 +7134,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="13" t="s">
-        <v>222</v>
+        <v>90</v>
       </c>
       <c r="B11" s="15">
         <v>1097.9774146320001</v>
@@ -7166,7 +7157,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="13" t="s">
-        <v>223</v>
+        <v>91</v>
       </c>
       <c r="B12" s="15">
         <v>1694.7778904690001</v>
@@ -7189,7 +7180,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="13" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="B13" s="15">
         <v>2138.3723876399999</v>
@@ -7212,7 +7203,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="13" t="s">
-        <v>225</v>
+        <v>93</v>
       </c>
       <c r="B14" s="15">
         <v>1389.4475920110001</v>
@@ -7235,7 +7226,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="13" t="s">
-        <v>226</v>
+        <v>94</v>
       </c>
       <c r="B15" s="15">
         <v>1705.2847508350001</v>
@@ -7258,7 +7249,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="13" t="s">
-        <v>227</v>
+        <v>95</v>
       </c>
       <c r="B16" s="15">
         <v>2376.2768697390002</v>
@@ -7281,7 +7272,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="13" t="s">
-        <v>228</v>
+        <v>96</v>
       </c>
       <c r="B17" s="15">
         <v>3598.6896022179999</v>
@@ -7304,7 +7295,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="13" t="s">
-        <v>229</v>
+        <v>97</v>
       </c>
       <c r="B18" s="15">
         <v>1698.4991974500001</v>
@@ -7327,7 +7318,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="13" t="s">
-        <v>230</v>
+        <v>98</v>
       </c>
       <c r="B19" s="15">
         <v>1988.509428266</v>
@@ -7350,7 +7341,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="13" t="s">
-        <v>231</v>
+        <v>99</v>
       </c>
       <c r="D20" s="13">
         <v>3802</v>
@@ -7378,10 +7369,10 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="55" t="s">
-        <v>312</v>
+        <v>100</v>
       </c>
       <c r="I23" s="55" t="s">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="J23" s="55"/>
       <c r="K23" s="55"/>
@@ -7389,37 +7380,37 @@
     </row>
     <row r="24" spans="1:12" ht="42.75">
       <c r="A24" s="56" t="s">
-        <v>304</v>
+        <v>102</v>
       </c>
       <c r="B24" s="56" t="s">
-        <v>216</v>
+        <v>83</v>
       </c>
       <c r="C24" s="56" t="s">
-        <v>313</v>
+        <v>103</v>
       </c>
       <c r="D24" s="56" t="s">
-        <v>218</v>
+        <v>82</v>
       </c>
       <c r="E24" s="56" t="s">
-        <v>219</v>
+        <v>84</v>
       </c>
       <c r="I24" s="56" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="J24" s="56" t="s">
-        <v>302</v>
+        <v>104</v>
       </c>
       <c r="K24" s="56" t="s">
-        <v>303</v>
+        <v>105</v>
       </c>
       <c r="L24" s="55"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="55" t="s">
-        <v>305</v>
+        <v>106</v>
       </c>
       <c r="B25" s="55" t="s">
-        <v>220</v>
+        <v>88</v>
       </c>
       <c r="C25" s="57">
         <v>0.45974601799999998</v>
@@ -7443,10 +7434,10 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="55" t="s">
-        <v>306</v>
+        <v>107</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>220</v>
+        <v>88</v>
       </c>
       <c r="C26" s="57">
         <v>0.55867849599999997</v>
@@ -7470,10 +7461,10 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="55" t="s">
-        <v>305</v>
+        <v>106</v>
       </c>
       <c r="B27" s="55" t="s">
-        <v>221</v>
+        <v>89</v>
       </c>
       <c r="C27" s="57">
         <v>0.60926007599999998</v>
@@ -7497,10 +7488,10 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="55" t="s">
-        <v>306</v>
+        <v>107</v>
       </c>
       <c r="B28" s="55" t="s">
-        <v>221</v>
+        <v>89</v>
       </c>
       <c r="C28" s="57">
         <v>0.62434078800000004</v>
@@ -7524,10 +7515,10 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="55" t="s">
-        <v>305</v>
+        <v>106</v>
       </c>
       <c r="B29" s="55" t="s">
-        <v>222</v>
+        <v>90</v>
       </c>
       <c r="C29" s="57">
         <v>0.49817408600000002</v>
@@ -7551,10 +7542,10 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="55" t="s">
-        <v>306</v>
+        <v>107</v>
       </c>
       <c r="B30" s="55" t="s">
-        <v>222</v>
+        <v>90</v>
       </c>
       <c r="C30" s="57">
         <v>0.59295857500000004</v>
@@ -7578,10 +7569,10 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="55" t="s">
-        <v>305</v>
+        <v>106</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>223</v>
+        <v>91</v>
       </c>
       <c r="C31" s="57">
         <v>0.46037377200000001</v>
@@ -7605,10 +7596,10 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="55" t="s">
-        <v>306</v>
+        <v>107</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>223</v>
+        <v>91</v>
       </c>
       <c r="C32" s="57">
         <v>0.45820380599999999</v>
@@ -7632,10 +7623,10 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="55" t="s">
-        <v>305</v>
+        <v>106</v>
       </c>
       <c r="B33" s="55" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="C33" s="57">
         <v>0.49146419200000002</v>
@@ -7659,10 +7650,10 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="55" t="s">
-        <v>306</v>
+        <v>107</v>
       </c>
       <c r="B34" s="55" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="C34" s="57">
         <v>0.56955106300000002</v>
@@ -7686,10 +7677,10 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="55" t="s">
-        <v>305</v>
+        <v>106</v>
       </c>
       <c r="B35" s="55" t="s">
-        <v>225</v>
+        <v>93</v>
       </c>
       <c r="C35" s="57">
         <v>0.35854309299999998</v>
@@ -7713,10 +7704,10 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="55" t="s">
-        <v>306</v>
+        <v>107</v>
       </c>
       <c r="B36" s="55" t="s">
-        <v>225</v>
+        <v>93</v>
       </c>
       <c r="C36" s="57">
         <v>0.46572150000000001</v>
@@ -7740,10 +7731,10 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="55" t="s">
-        <v>305</v>
+        <v>106</v>
       </c>
       <c r="B37" s="55" t="s">
-        <v>226</v>
+        <v>94</v>
       </c>
       <c r="C37" s="57">
         <v>0.44976586200000002</v>
@@ -7767,10 +7758,10 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="55" t="s">
-        <v>306</v>
+        <v>107</v>
       </c>
       <c r="B38" s="55" t="s">
-        <v>226</v>
+        <v>94</v>
       </c>
       <c r="C38" s="57">
         <v>0.50664611299999995</v>
@@ -7784,10 +7775,10 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="55" t="s">
-        <v>305</v>
+        <v>106</v>
       </c>
       <c r="B39" s="55" t="s">
-        <v>227</v>
+        <v>95</v>
       </c>
       <c r="C39" s="57">
         <v>0.49747007300000001</v>
@@ -7801,10 +7792,10 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="55" t="s">
-        <v>306</v>
+        <v>107</v>
       </c>
       <c r="B40" s="55" t="s">
-        <v>227</v>
+        <v>95</v>
       </c>
       <c r="C40" s="57">
         <v>0.54360730599999996</v>
@@ -7818,10 +7809,10 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="55" t="s">
-        <v>305</v>
+        <v>106</v>
       </c>
       <c r="B41" s="55" t="s">
-        <v>228</v>
+        <v>96</v>
       </c>
       <c r="C41" s="57">
         <v>0.39763525900000002</v>
@@ -7835,10 +7826,10 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="55" t="s">
-        <v>306</v>
+        <v>107</v>
       </c>
       <c r="B42" s="55" t="s">
-        <v>228</v>
+        <v>96</v>
       </c>
       <c r="C42" s="57">
         <v>0.84500253700000005</v>
@@ -7852,10 +7843,10 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="55" t="s">
-        <v>305</v>
+        <v>106</v>
       </c>
       <c r="B43" s="55" t="s">
-        <v>229</v>
+        <v>97</v>
       </c>
       <c r="C43" s="57">
         <v>0.38118582699999998</v>
@@ -7869,10 +7860,10 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="55" t="s">
-        <v>306</v>
+        <v>107</v>
       </c>
       <c r="B44" s="55" t="s">
-        <v>229</v>
+        <v>97</v>
       </c>
       <c r="C44" s="57">
         <v>0.45061283299999999</v>
@@ -7886,10 +7877,10 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="55" t="s">
-        <v>305</v>
+        <v>106</v>
       </c>
       <c r="B45" s="55" t="s">
-        <v>230</v>
+        <v>98</v>
       </c>
       <c r="C45" s="57">
         <v>0.47667163200000001</v>
@@ -7903,10 +7894,10 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="55" t="s">
-        <v>306</v>
+        <v>107</v>
       </c>
       <c r="B46" s="55" t="s">
-        <v>230</v>
+        <v>98</v>
       </c>
       <c r="C46" s="57">
         <v>0.49951596500000001</v>
@@ -7920,10 +7911,10 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="55" t="s">
-        <v>305</v>
+        <v>106</v>
       </c>
       <c r="B47" s="55" t="s">
-        <v>231</v>
+        <v>99</v>
       </c>
       <c r="C47" s="57">
         <v>0.62675561700000004</v>
@@ -7937,10 +7928,10 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="55" t="s">
-        <v>306</v>
+        <v>107</v>
       </c>
       <c r="B48" s="55" t="s">
-        <v>231</v>
+        <v>99</v>
       </c>
       <c r="C48" s="57">
         <v>0.65139771000000002</v>
@@ -7977,33 +7968,33 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
-        <v>195</v>
+        <v>108</v>
       </c>
       <c r="C1" t="s">
-        <v>192</v>
+        <v>109</v>
       </c>
       <c r="D1" t="s">
-        <v>193</v>
+        <v>110</v>
       </c>
       <c r="E1" t="s">
-        <v>194</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>235</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>199</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8042,33 +8033,33 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="D2">
         <v>2917</v>
@@ -8082,7 +8073,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="C3" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="D3">
         <v>3727</v>
@@ -8096,13 +8087,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="D4">
         <v>6492</v>
@@ -8116,13 +8107,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="D5">
         <v>912</v>
@@ -8136,13 +8127,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="D6">
         <v>1017</v>
@@ -8156,7 +8147,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="C7" t="s">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="D7">
         <v>2072</v>
@@ -8170,13 +8161,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="D8">
         <v>968</v>
@@ -8190,13 +8181,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="D9">
         <v>671</v>
@@ -8210,7 +8201,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="C10" t="s">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="D10">
         <v>6978</v>
@@ -8224,13 +8215,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="D11">
         <v>5366</v>
@@ -8244,7 +8235,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="C12" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="D12">
         <v>1477</v>
@@ -8258,7 +8249,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="C13" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="D13">
         <v>1744</v>
@@ -8272,13 +8263,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="D14">
         <v>3659</v>
@@ -8292,13 +8283,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="D15">
         <v>2448</v>
@@ -8312,7 +8303,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="D16">
         <v>8271</v>
@@ -8326,13 +8317,13 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="D17">
         <v>2651</v>
@@ -8346,13 +8337,13 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="D18" s="12">
         <v>1980</v>
@@ -8366,13 +8357,13 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="D19" s="12">
         <v>6154</v>
@@ -8386,13 +8377,13 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="D20">
         <v>4052</v>
@@ -8406,13 +8397,13 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="D21" s="12">
         <v>3279</v>
@@ -8426,12 +8417,12 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -8463,7 +8454,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="55.5" customHeight="1">
       <c r="A1" s="19" t="s">
-        <v>254</v>
+        <v>159</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -8475,27 +8466,27 @@
       <c r="I1" s="20"/>
       <c r="L1" s="53"/>
       <c r="M1" s="53" t="s">
-        <v>298</v>
+        <v>73</v>
       </c>
       <c r="N1" s="53" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="O1" s="53" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="P1" s="53" t="s">
-        <v>299</v>
+        <v>160</v>
       </c>
       <c r="Q1" s="53" t="s">
-        <v>300</v>
+        <v>161</v>
       </c>
       <c r="R1" s="53" t="s">
-        <v>297</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75">
       <c r="A2" s="19" t="s">
-        <v>255</v>
+        <v>163</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -8506,7 +8497,7 @@
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
       <c r="L2" s="53" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="M2" s="54">
         <f>B24/100</f>
@@ -8535,7 +8526,7 @@
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>256</v>
+        <v>164</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
@@ -8546,7 +8537,7 @@
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
       <c r="L3" s="53" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="M3" s="54">
         <f>B23/100</f>
@@ -8576,25 +8567,25 @@
     <row r="4" spans="1:18" ht="23.45" customHeight="1">
       <c r="A4" s="22"/>
       <c r="B4" s="23" t="s">
-        <v>257</v>
+        <v>165</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>258</v>
+        <v>166</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="22" t="s">
-        <v>259</v>
+        <v>167</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="23" t="s">
-        <v>260</v>
+        <v>168</v>
       </c>
       <c r="H4" s="22"/>
       <c r="I4" s="23" t="s">
-        <v>261</v>
+        <v>169</v>
       </c>
       <c r="L4" s="53" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="M4" s="54">
         <f>B17/100</f>
@@ -8624,62 +8615,62 @@
     <row r="5" spans="1:18" ht="24">
       <c r="A5" s="22"/>
       <c r="B5" s="24" t="s">
-        <v>262</v>
+        <v>170</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>263</v>
+        <v>171</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>264</v>
+        <v>172</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>265</v>
+        <v>173</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>266</v>
+        <v>174</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>267</v>
+        <v>175</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>258</v>
+        <v>166</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>268</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="25" t="s">
-        <v>269</v>
+        <v>177</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>270</v>
+        <v>178</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>271</v>
+        <v>179</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>272</v>
+        <v>180</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>273</v>
+        <v>181</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>274</v>
+        <v>182</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>275</v>
+        <v>183</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>276</v>
+        <v>184</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>277</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="27" t="s">
-        <v>278</v>
+        <v>186</v>
       </c>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
@@ -8692,7 +8683,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="29" t="s">
-        <v>279</v>
+        <v>187</v>
       </c>
       <c r="B8" s="30">
         <v>85</v>
@@ -8713,7 +8704,7 @@
         <v>139.5</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>280</v>
+        <v>188</v>
       </c>
       <c r="I8" s="31">
         <v>139.5</v>
@@ -8721,7 +8712,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="32" t="s">
-        <v>281</v>
+        <v>189</v>
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
@@ -8734,7 +8725,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="32" t="s">
-        <v>282</v>
+        <v>190</v>
       </c>
       <c r="B10" s="30">
         <v>87</v>
@@ -8755,7 +8746,7 @@
         <v>58.1</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>280</v>
+        <v>188</v>
       </c>
       <c r="I10" s="31">
         <v>58.1</v>
@@ -8763,7 +8754,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="32" t="s">
-        <v>283</v>
+        <v>191</v>
       </c>
       <c r="B11" s="30">
         <v>87</v>
@@ -8784,7 +8775,7 @@
         <v>57.2</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>280</v>
+        <v>188</v>
       </c>
       <c r="I11" s="31">
         <v>57.2</v>
@@ -8792,7 +8783,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="32" t="s">
-        <v>284</v>
+        <v>192</v>
       </c>
       <c r="B12" s="30">
         <v>87</v>
@@ -8813,7 +8804,7 @@
         <v>84.8</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>280</v>
+        <v>188</v>
       </c>
       <c r="I12" s="31">
         <v>84.8</v>
@@ -8821,7 +8812,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="33" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="B13" s="34">
         <v>30</v>
@@ -8842,28 +8833,28 @@
         <v>110.8</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>280</v>
+        <v>188</v>
       </c>
       <c r="I13" s="35">
         <v>110.8</v>
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="77" t="s">
-        <v>286</v>
-      </c>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
+      <c r="A14" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="36" t="s">
-        <v>287</v>
+        <v>195</v>
       </c>
       <c r="B15" s="37">
         <v>30</v>
@@ -8884,7 +8875,7 @@
         <v>94.7</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>280</v>
+        <v>188</v>
       </c>
       <c r="I15" s="38">
         <v>94.7</v>
@@ -8892,7 +8883,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="32" t="s">
-        <v>288</v>
+        <v>196</v>
       </c>
       <c r="B16" s="30">
         <v>90</v>
@@ -8913,7 +8904,7 @@
         <v>102.8</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>280</v>
+        <v>188</v>
       </c>
       <c r="I16" s="31">
         <v>102.8</v>
@@ -8921,7 +8912,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="32" t="s">
-        <v>289</v>
+        <v>197</v>
       </c>
       <c r="B17" s="30">
         <v>91</v>
@@ -8950,7 +8941,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="32" t="s">
-        <v>290</v>
+        <v>198</v>
       </c>
       <c r="B18" s="30">
         <v>83</v>
@@ -8971,7 +8962,7 @@
         <v>96.1</v>
       </c>
       <c r="H18" s="41" t="s">
-        <v>280</v>
+        <v>188</v>
       </c>
       <c r="I18" s="31">
         <v>96.1</v>
@@ -8979,7 +8970,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="42" t="s">
-        <v>291</v>
+        <v>199</v>
       </c>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -8992,7 +8983,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="32" t="s">
-        <v>292</v>
+        <v>200</v>
       </c>
       <c r="B20" s="30">
         <v>40</v>
@@ -9021,7 +9012,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="32" t="s">
-        <v>293</v>
+        <v>201</v>
       </c>
       <c r="B21" s="30">
         <v>45</v>
@@ -9050,7 +9041,7 @@
     </row>
     <row r="22" spans="1:9" ht="14.45" customHeight="1">
       <c r="A22" s="44" t="s">
-        <v>294</v>
+        <v>202</v>
       </c>
       <c r="B22" s="45">
         <v>25</v>
@@ -9079,7 +9070,7 @@
     </row>
     <row r="23" spans="1:9" ht="14.45" customHeight="1">
       <c r="A23" s="44" t="s">
-        <v>295</v>
+        <v>203</v>
       </c>
       <c r="B23" s="44">
         <v>20</v>
@@ -9108,7 +9099,7 @@
     </row>
     <row r="24" spans="1:9" ht="14.45" customHeight="1">
       <c r="A24" s="49" t="s">
-        <v>296</v>
+        <v>204</v>
       </c>
       <c r="B24" s="50">
         <v>58</v>
@@ -9129,7 +9120,7 @@
         <v>67.8</v>
       </c>
       <c r="H24" s="52" t="s">
-        <v>280</v>
+        <v>188</v>
       </c>
       <c r="I24" s="51">
         <v>67.8</v>
@@ -9160,15 +9151,15 @@
   <sheetData>
     <row r="1" spans="1:39">
       <c r="C1" t="s">
-        <v>56</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>207</v>
       </c>
       <c r="C2">
         <v>2014</v>
@@ -9284,10 +9275,10 @@
     </row>
     <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>209</v>
       </c>
       <c r="C3">
         <v>6542.8564452168666</v>
@@ -9403,10 +9394,10 @@
     </row>
     <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>208</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>210</v>
       </c>
       <c r="C4">
         <v>6542.8564452168666</v>
@@ -9522,10 +9513,10 @@
     </row>
     <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>208</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>211</v>
       </c>
       <c r="C5">
         <v>6542.8564452168666</v>
@@ -9641,10 +9632,10 @@
     </row>
     <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>208</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>212</v>
       </c>
       <c r="C6">
         <v>6542.8564452168666</v>
@@ -9760,10 +9751,10 @@
     </row>
     <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>208</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>213</v>
       </c>
       <c r="C7">
         <v>6542.8564452168666</v>
@@ -9879,10 +9870,10 @@
     </row>
     <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>208</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>214</v>
       </c>
       <c r="C8">
         <v>6542.8564452168666</v>
@@ -9998,10 +9989,10 @@
     </row>
     <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>215</v>
       </c>
       <c r="C9">
         <v>1016.669044128</v>
@@ -10117,10 +10108,10 @@
     </row>
     <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>216</v>
       </c>
       <c r="C10">
         <v>1016.669044128</v>
@@ -10236,10 +10227,10 @@
     </row>
     <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>217</v>
       </c>
       <c r="C11">
         <v>1016.669044128</v>
@@ -10355,10 +10346,10 @@
     </row>
     <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="C12">
         <v>5937.8628529899997</v>
@@ -10474,10 +10465,10 @@
     </row>
     <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>219</v>
       </c>
       <c r="C13">
         <v>5937.8628529899997</v>
@@ -10593,10 +10584,10 @@
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>220</v>
       </c>
       <c r="C14">
         <v>5937.8628529899997</v>
@@ -10712,10 +10703,10 @@
     </row>
     <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>221</v>
       </c>
       <c r="C15">
         <v>5404.5923246599996</v>
@@ -10831,10 +10822,10 @@
     </row>
     <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="C16">
         <v>5404.5923246599996</v>
@@ -10950,10 +10941,10 @@
     </row>
     <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>223</v>
       </c>
       <c r="C17">
         <v>5404.5923246599996</v>
@@ -11069,10 +11060,10 @@
     </row>
     <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>224</v>
       </c>
       <c r="C18">
         <v>3976.7149884099999</v>
@@ -11188,10 +11179,10 @@
     </row>
     <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="C19">
         <v>3976.7149884099999</v>
@@ -11307,10 +11298,10 @@
     </row>
     <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="C20">
         <v>3976.7149884099999</v>
@@ -11426,10 +11417,10 @@
     </row>
     <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>227</v>
       </c>
       <c r="C21">
         <v>3749.3454306399999</v>
@@ -11545,10 +11536,10 @@
     </row>
     <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="C22">
         <v>3749.3454306399999</v>
@@ -11664,10 +11655,10 @@
     </row>
     <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>229</v>
       </c>
       <c r="C23">
         <v>3749.3454306399999</v>
@@ -11783,10 +11774,10 @@
     </row>
     <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>230</v>
       </c>
       <c r="C24">
         <v>6997.72266167</v>
@@ -11902,10 +11893,10 @@
     </row>
     <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="C25">
         <v>6997.72266167</v>
@@ -12021,10 +12012,10 @@
     </row>
     <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>232</v>
       </c>
       <c r="C26">
         <v>6997.72266167</v>
@@ -12140,10 +12131,10 @@
     </row>
     <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>233</v>
       </c>
       <c r="C27">
         <v>6247.0408507000002</v>
@@ -12259,10 +12250,10 @@
     </row>
     <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>234</v>
       </c>
       <c r="C28">
         <v>6247.0408507000002</v>
@@ -12378,10 +12369,10 @@
     </row>
     <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>235</v>
       </c>
       <c r="C29">
         <v>6247.0408507000002</v>
@@ -12497,10 +12488,10 @@
     </row>
     <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>236</v>
       </c>
       <c r="C30">
         <v>6118.6170122000003</v>
@@ -12616,10 +12607,10 @@
     </row>
     <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>237</v>
       </c>
       <c r="C31">
         <v>6118.6170122000003</v>
@@ -12735,10 +12726,10 @@
     </row>
     <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>238</v>
       </c>
       <c r="C32">
         <v>6118.6170122000003</v>
@@ -12854,10 +12845,10 @@
     </row>
     <row r="33" spans="1:39">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>239</v>
       </c>
       <c r="C33">
         <v>5508.1456035900001</v>
@@ -12973,10 +12964,10 @@
     </row>
     <row r="34" spans="1:39">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>240</v>
       </c>
       <c r="C34">
         <v>5508.1456035900001</v>
@@ -13092,10 +13083,10 @@
     </row>
     <row r="35" spans="1:39">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>241</v>
       </c>
       <c r="C35">
         <v>5508.1456035900001</v>
@@ -13211,10 +13202,10 @@
     </row>
     <row r="36" spans="1:39">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>242</v>
       </c>
       <c r="C36">
         <v>5486.0752926746272</v>
@@ -13330,10 +13321,10 @@
     </row>
     <row r="37" spans="1:39">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>243</v>
       </c>
       <c r="C37">
         <v>6846</v>
@@ -13449,10 +13440,10 @@
     </row>
     <row r="38" spans="1:39">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>244</v>
       </c>
       <c r="C38">
         <v>6846</v>
@@ -13568,10 +13559,10 @@
     </row>
     <row r="39" spans="1:39">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
+        <v>245</v>
       </c>
       <c r="C39">
         <v>6846</v>
@@ -13687,10 +13678,10 @@
     </row>
     <row r="40" spans="1:39">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="B40" t="s">
-        <v>97</v>
+        <v>246</v>
       </c>
       <c r="C40">
         <v>6846</v>
@@ -13806,10 +13797,10 @@
     </row>
     <row r="41" spans="1:39">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>247</v>
       </c>
       <c r="C41">
         <v>6846</v>
@@ -13925,10 +13916,10 @@
     </row>
     <row r="42" spans="1:39">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>248</v>
       </c>
       <c r="C42">
         <v>6846</v>
@@ -14044,10 +14035,10 @@
     </row>
     <row r="43" spans="1:39">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="B43" t="s">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="C43">
         <v>6846</v>
@@ -14163,10 +14154,10 @@
     </row>
     <row r="44" spans="1:39">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="B44" t="s">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="C44">
         <v>6846</v>
@@ -14282,10 +14273,10 @@
     </row>
     <row r="45" spans="1:39">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="B45" t="s">
-        <v>102</v>
+        <v>251</v>
       </c>
       <c r="C45">
         <v>6846</v>
@@ -14401,10 +14392,10 @@
     </row>
     <row r="46" spans="1:39">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
+        <v>252</v>
       </c>
       <c r="C46">
         <v>8024.8</v>
@@ -14520,10 +14511,10 @@
     </row>
     <row r="47" spans="1:39">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="B47" t="s">
-        <v>104</v>
+        <v>253</v>
       </c>
       <c r="C47">
         <v>8024.8</v>
@@ -14639,10 +14630,10 @@
     </row>
     <row r="48" spans="1:39">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="B48" t="s">
-        <v>105</v>
+        <v>254</v>
       </c>
       <c r="C48">
         <v>8024.8</v>
@@ -14758,10 +14749,10 @@
     </row>
     <row r="49" spans="1:39">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="B49" t="s">
-        <v>106</v>
+        <v>255</v>
       </c>
       <c r="C49">
         <v>8024.8</v>
@@ -14877,10 +14868,10 @@
     </row>
     <row r="50" spans="1:39">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>256</v>
       </c>
       <c r="C50">
         <v>8024.8</v>
@@ -14996,10 +14987,10 @@
     </row>
     <row r="51" spans="1:39">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="B51" t="s">
-        <v>108</v>
+        <v>257</v>
       </c>
       <c r="C51">
         <v>8024.8</v>
@@ -15115,10 +15106,10 @@
     </row>
     <row r="52" spans="1:39">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="B52" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C52">
         <v>8024.8</v>
@@ -15234,10 +15225,10 @@
     </row>
     <row r="53" spans="1:39">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="B53" t="s">
-        <v>110</v>
+        <v>259</v>
       </c>
       <c r="C53">
         <v>8024.8</v>
@@ -15353,10 +15344,10 @@
     </row>
     <row r="54" spans="1:39">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="B54" t="s">
-        <v>111</v>
+        <v>260</v>
       </c>
       <c r="C54">
         <v>8024.8</v>
@@ -15472,10 +15463,10 @@
     </row>
     <row r="55" spans="1:39">
       <c r="A55" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="B55" t="s">
-        <v>112</v>
+        <v>261</v>
       </c>
       <c r="C55">
         <v>3717.5439999999999</v>
@@ -15591,10 +15582,10 @@
     </row>
     <row r="56" spans="1:39">
       <c r="A56" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="B56" t="s">
-        <v>113</v>
+        <v>262</v>
       </c>
       <c r="C56">
         <v>3717.5439999999999</v>
@@ -15710,10 +15701,10 @@
     </row>
     <row r="57" spans="1:39">
       <c r="A57" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="B57" t="s">
-        <v>114</v>
+        <v>263</v>
       </c>
       <c r="C57">
         <v>3717.5439999999999</v>
@@ -15829,10 +15820,10 @@
     </row>
     <row r="58" spans="1:39">
       <c r="A58" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>264</v>
       </c>
       <c r="C58">
         <v>3829.4706747999999</v>
@@ -15948,10 +15939,10 @@
     </row>
     <row r="59" spans="1:39">
       <c r="A59" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="B59" t="s">
-        <v>116</v>
+        <v>265</v>
       </c>
       <c r="C59">
         <v>3829.4706747999999</v>
@@ -16067,10 +16058,10 @@
     </row>
     <row r="60" spans="1:39">
       <c r="A60" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>266</v>
       </c>
       <c r="C60">
         <v>3829.4706747999999</v>
@@ -16186,10 +16177,10 @@
     </row>
     <row r="61" spans="1:39">
       <c r="A61" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
+        <v>267</v>
       </c>
       <c r="C61">
         <v>3829.4706747999999</v>
@@ -16305,10 +16296,10 @@
     </row>
     <row r="62" spans="1:39">
       <c r="A62" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="B62" t="s">
-        <v>119</v>
+        <v>268</v>
       </c>
       <c r="C62">
         <v>3829.4706747999999</v>
@@ -16424,10 +16415,10 @@
     </row>
     <row r="63" spans="1:39">
       <c r="A63" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="B63" t="s">
-        <v>120</v>
+        <v>269</v>
       </c>
       <c r="C63">
         <v>3829.4706747999999</v>
@@ -16543,10 +16534,10 @@
     </row>
     <row r="64" spans="1:39">
       <c r="A64" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="B64" t="s">
-        <v>121</v>
+        <v>270</v>
       </c>
       <c r="C64">
         <v>4567</v>
@@ -16662,10 +16653,10 @@
     </row>
     <row r="65" spans="1:39">
       <c r="A65" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="B65" t="s">
-        <v>122</v>
+        <v>271</v>
       </c>
       <c r="C65">
         <v>4567</v>
@@ -16781,10 +16772,10 @@
     </row>
     <row r="66" spans="1:39">
       <c r="A66" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="B66" t="s">
-        <v>123</v>
+        <v>272</v>
       </c>
       <c r="C66">
         <v>4567</v>
@@ -16900,10 +16891,10 @@
     </row>
     <row r="67" spans="1:39">
       <c r="A67" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="B67" t="s">
-        <v>124</v>
+        <v>273</v>
       </c>
       <c r="C67">
         <v>5465</v>
@@ -17019,10 +17010,10 @@
     </row>
     <row r="68" spans="1:39">
       <c r="A68" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="B68" t="s">
-        <v>125</v>
+        <v>274</v>
       </c>
       <c r="C68">
         <v>5465</v>
@@ -17138,10 +17129,10 @@
     </row>
     <row r="69" spans="1:39">
       <c r="A69" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="B69" t="s">
-        <v>126</v>
+        <v>275</v>
       </c>
       <c r="C69">
         <v>5465</v>
@@ -17257,10 +17248,10 @@
     </row>
     <row r="70" spans="1:39">
       <c r="A70" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="B70" t="s">
-        <v>127</v>
+        <v>276</v>
       </c>
       <c r="C70">
         <v>8100</v>
@@ -17376,10 +17367,10 @@
     </row>
     <row r="71" spans="1:39">
       <c r="A71" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="B71" t="s">
-        <v>128</v>
+        <v>277</v>
       </c>
       <c r="C71">
         <v>8100</v>
@@ -17495,10 +17486,10 @@
     </row>
     <row r="72" spans="1:39">
       <c r="A72" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="B72" t="s">
-        <v>129</v>
+        <v>278</v>
       </c>
       <c r="C72">
         <v>8100</v>
@@ -17614,10 +17605,10 @@
     </row>
     <row r="73" spans="1:39">
       <c r="A73" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="B73" t="s">
-        <v>130</v>
+        <v>279</v>
       </c>
       <c r="C73">
         <v>12179</v>
@@ -17733,10 +17724,10 @@
     </row>
     <row r="74" spans="1:39">
       <c r="A74" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="B74" t="s">
-        <v>131</v>
+        <v>280</v>
       </c>
       <c r="C74">
         <v>12179</v>
@@ -17852,10 +17843,10 @@
     </row>
     <row r="75" spans="1:39">
       <c r="A75" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="B75" t="s">
-        <v>132</v>
+        <v>281</v>
       </c>
       <c r="C75">
         <v>12179</v>
@@ -17971,10 +17962,10 @@
     </row>
     <row r="76" spans="1:39">
       <c r="A76" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="B76" t="s">
-        <v>133</v>
+        <v>282</v>
       </c>
       <c r="C76">
         <v>8100</v>
@@ -18090,10 +18081,10 @@
     </row>
     <row r="77" spans="1:39">
       <c r="A77" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="B77" t="s">
-        <v>134</v>
+        <v>283</v>
       </c>
       <c r="C77">
         <v>8100</v>
@@ -18209,10 +18200,10 @@
     </row>
     <row r="78" spans="1:39">
       <c r="A78" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="B78" t="s">
-        <v>135</v>
+        <v>284</v>
       </c>
       <c r="C78">
         <v>8100</v>
@@ -18328,10 +18319,10 @@
     </row>
     <row r="79" spans="1:39">
       <c r="A79" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="B79" t="s">
-        <v>136</v>
+        <v>285</v>
       </c>
       <c r="C79">
         <v>12179</v>
@@ -18447,10 +18438,10 @@
     </row>
     <row r="80" spans="1:39">
       <c r="A80" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="B80" t="s">
-        <v>137</v>
+        <v>286</v>
       </c>
       <c r="C80">
         <v>12179</v>
@@ -18566,10 +18557,10 @@
     </row>
     <row r="81" spans="1:39">
       <c r="A81" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="B81" t="s">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="C81">
         <v>12179</v>
@@ -18685,10 +18676,10 @@
     </row>
     <row r="82" spans="1:39">
       <c r="A82" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="B82" t="s">
-        <v>139</v>
+        <v>288</v>
       </c>
       <c r="C82">
         <v>869.1945425319999</v>
@@ -18804,10 +18795,10 @@
     </row>
     <row r="83" spans="1:39">
       <c r="A83" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="B83" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
       <c r="C83">
         <v>869.1945425319999</v>
@@ -18923,10 +18914,10 @@
     </row>
     <row r="84" spans="1:39">
       <c r="A84" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="B84" t="s">
-        <v>141</v>
+        <v>290</v>
       </c>
       <c r="C84">
         <v>869.1945425319999</v>
@@ -19042,10 +19033,10 @@
     </row>
     <row r="85" spans="1:39">
       <c r="A85" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="B85" t="s">
-        <v>142</v>
+        <v>291</v>
       </c>
       <c r="C85">
         <v>5391.5126343022939</v>
@@ -19161,10 +19152,10 @@
     </row>
     <row r="86" spans="1:39">
       <c r="A86" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="B86" t="s">
-        <v>143</v>
+        <v>292</v>
       </c>
       <c r="C86">
         <v>5391.5126343022939</v>
@@ -19280,10 +19271,10 @@
     </row>
     <row r="87" spans="1:39">
       <c r="A87" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="B87" t="s">
-        <v>144</v>
+        <v>293</v>
       </c>
       <c r="C87">
         <v>5391.5126343022939</v>
@@ -19399,10 +19390,10 @@
     </row>
     <row r="88" spans="1:39">
       <c r="A88" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="B88" t="s">
-        <v>145</v>
+        <v>294</v>
       </c>
       <c r="C88">
         <v>5391.512634302233</v>
@@ -19518,10 +19509,10 @@
     </row>
     <row r="89" spans="1:39">
       <c r="A89" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="B89" t="s">
-        <v>146</v>
+        <v>295</v>
       </c>
       <c r="C89">
         <v>5391.512634302233</v>
@@ -19637,10 +19628,10 @@
     </row>
     <row r="90" spans="1:39">
       <c r="A90" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="B90" t="s">
-        <v>147</v>
+        <v>296</v>
       </c>
       <c r="C90">
         <v>5391.512634302233</v>
@@ -19756,10 +19747,10 @@
     </row>
     <row r="91" spans="1:39">
       <c r="A91" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="B91" t="s">
-        <v>148</v>
+        <v>297</v>
       </c>
       <c r="C91">
         <v>5391.5126343022639</v>
@@ -19875,10 +19866,10 @@
     </row>
     <row r="92" spans="1:39">
       <c r="A92" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="B92" t="s">
-        <v>149</v>
+        <v>298</v>
       </c>
       <c r="C92">
         <v>5391.5126343022639</v>
@@ -19994,10 +19985,10 @@
     </row>
     <row r="93" spans="1:39">
       <c r="A93" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="B93" t="s">
-        <v>150</v>
+        <v>299</v>
       </c>
       <c r="C93">
         <v>5391.5126343022639</v>
@@ -20113,10 +20104,10 @@
     </row>
     <row r="94" spans="1:39">
       <c r="A94" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="B94" t="s">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="C94">
         <v>5391.5126343023448</v>
@@ -20232,10 +20223,10 @@
     </row>
     <row r="95" spans="1:39">
       <c r="A95" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="B95" t="s">
-        <v>152</v>
+        <v>301</v>
       </c>
       <c r="C95">
         <v>5391.5126343023448</v>
@@ -20351,10 +20342,10 @@
     </row>
     <row r="96" spans="1:39">
       <c r="A96" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="B96" t="s">
-        <v>153</v>
+        <v>302</v>
       </c>
       <c r="C96">
         <v>5391.5126343023448</v>
@@ -20470,10 +20461,10 @@
     </row>
     <row r="97" spans="1:39">
       <c r="A97" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="B97" t="s">
-        <v>154</v>
+        <v>303</v>
       </c>
       <c r="C97">
         <v>5953.3433007831181</v>
@@ -20589,10 +20580,10 @@
     </row>
     <row r="98" spans="1:39">
       <c r="A98" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="B98" t="s">
-        <v>155</v>
+        <v>304</v>
       </c>
       <c r="C98">
         <v>5953.3433007831181</v>
@@ -20708,10 +20699,10 @@
     </row>
     <row r="99" spans="1:39">
       <c r="A99" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="B99" t="s">
-        <v>156</v>
+        <v>305</v>
       </c>
       <c r="C99">
         <v>5953.3433007831181</v>
@@ -20827,10 +20818,10 @@
     </row>
     <row r="100" spans="1:39">
       <c r="A100" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="B100" t="s">
-        <v>157</v>
+        <v>306</v>
       </c>
       <c r="C100">
         <v>5953.3433007831181</v>
@@ -20946,10 +20937,10 @@
     </row>
     <row r="101" spans="1:39">
       <c r="A101" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="B101" t="s">
-        <v>158</v>
+        <v>307</v>
       </c>
       <c r="C101">
         <v>5953.3433007831181</v>
@@ -21065,10 +21056,10 @@
     </row>
     <row r="102" spans="1:39">
       <c r="A102" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="B102" t="s">
-        <v>159</v>
+        <v>308</v>
       </c>
       <c r="C102">
         <v>5953.3433007831181</v>
@@ -21184,10 +21175,10 @@
     </row>
     <row r="103" spans="1:39">
       <c r="A103" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="B103" t="s">
-        <v>160</v>
+        <v>309</v>
       </c>
       <c r="C103">
         <v>5953.3433007831181</v>
@@ -21303,10 +21294,10 @@
     </row>
     <row r="104" spans="1:39">
       <c r="A104" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="B104" t="s">
-        <v>161</v>
+        <v>310</v>
       </c>
       <c r="C104">
         <v>5953.3433007831181</v>
@@ -21422,10 +21413,10 @@
     </row>
     <row r="105" spans="1:39">
       <c r="A105" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="B105" t="s">
-        <v>162</v>
+        <v>311</v>
       </c>
       <c r="C105">
         <v>5953.3433007831181</v>
@@ -21541,10 +21532,10 @@
     </row>
     <row r="106" spans="1:39">
       <c r="A106" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="B106" t="s">
-        <v>163</v>
+        <v>312</v>
       </c>
       <c r="C106">
         <v>6968.7620282760181</v>
@@ -21660,10 +21651,10 @@
     </row>
     <row r="107" spans="1:39">
       <c r="A107" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="B107" t="s">
-        <v>164</v>
+        <v>313</v>
       </c>
       <c r="C107">
         <v>6968.7620282760181</v>
@@ -21779,10 +21770,10 @@
     </row>
     <row r="108" spans="1:39">
       <c r="A108" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="B108" t="s">
-        <v>165</v>
+        <v>314</v>
       </c>
       <c r="C108">
         <v>6968.7620282760181</v>
@@ -21898,10 +21889,10 @@
     </row>
     <row r="109" spans="1:39">
       <c r="A109" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="B109" t="s">
-        <v>166</v>
+        <v>315</v>
       </c>
       <c r="C109">
         <v>6968.762028276089</v>
@@ -22017,10 +22008,10 @@
     </row>
     <row r="110" spans="1:39">
       <c r="A110" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="B110" t="s">
-        <v>167</v>
+        <v>316</v>
       </c>
       <c r="C110">
         <v>6968.762028276089</v>
@@ -22136,10 +22127,10 @@
     </row>
     <row r="111" spans="1:39">
       <c r="A111" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="B111" t="s">
-        <v>168</v>
+        <v>317</v>
       </c>
       <c r="C111">
         <v>6968.762028276089</v>
@@ -22255,10 +22246,10 @@
     </row>
     <row r="112" spans="1:39">
       <c r="A112" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="B112" t="s">
-        <v>169</v>
+        <v>318</v>
       </c>
       <c r="C112">
         <v>6968.762028276079</v>
@@ -22374,10 +22365,10 @@
     </row>
     <row r="113" spans="1:39">
       <c r="A113" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="B113" t="s">
-        <v>170</v>
+        <v>319</v>
       </c>
       <c r="C113">
         <v>6968.762028276079</v>
@@ -22493,10 +22484,10 @@
     </row>
     <row r="114" spans="1:39">
       <c r="A114" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="B114" t="s">
-        <v>171</v>
+        <v>320</v>
       </c>
       <c r="C114">
         <v>6968.762028276079</v>
@@ -22725,7 +22716,7 @@
     </row>
     <row r="118" spans="1:39">
       <c r="A118" t="s">
-        <v>59</v>
+        <v>208</v>
       </c>
       <c r="B118">
         <f>AVERAGEIF($A$3:$A$114,$A118,C$3:C$114)/AVERAGEIF($A$3:$A$114,$A118,$C$3:$C$114)</f>
@@ -22878,7 +22869,7 @@
     </row>
     <row r="119" spans="1:39">
       <c r="A119" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="B119">
         <f t="shared" ref="B119:Q124" si="1">AVERAGEIF($A$3:$A$114,$A119,C$3:C$114)/AVERAGEIF($A$3:$A$114,$A119,$C$3:$C$114)</f>
@@ -23031,7 +23022,7 @@
     </row>
     <row r="120" spans="1:39">
       <c r="A120" t="s">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="B120">
         <f t="shared" si="1"/>
@@ -23184,7 +23175,7 @@
     </row>
     <row r="121" spans="1:39">
       <c r="A121" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="B121">
         <f t="shared" si="1"/>
@@ -23337,7 +23328,7 @@
     </row>
     <row r="122" spans="1:39">
       <c r="A122" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="B122">
         <f t="shared" si="1"/>
@@ -23490,7 +23481,7 @@
     </row>
     <row r="123" spans="1:39">
       <c r="A123" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="B123">
         <f t="shared" si="1"/>
@@ -23643,7 +23634,7 @@
     </row>
     <row r="124" spans="1:39">
       <c r="A124" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="B124">
         <f t="shared" si="1"/>
@@ -23821,37 +23812,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="78" t="s">
-        <v>238</v>
-      </c>
-      <c r="B1" s="78" t="s">
-        <v>239</v>
-      </c>
-      <c r="C1" s="78" t="s">
-        <v>240</v>
-      </c>
-      <c r="D1" s="78"/>
+      <c r="A1" s="79" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" s="79" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>323</v>
+      </c>
+      <c r="D1" s="79"/>
       <c r="I1" t="s">
-        <v>250</v>
+        <v>324</v>
       </c>
       <c r="J1" t="s">
-        <v>251</v>
+        <v>325</v>
       </c>
       <c r="K1" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="L1" t="s">
-        <v>253</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="45">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>242</v>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="76" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2" s="76" t="s">
+        <v>329</v>
       </c>
       <c r="H2">
         <v>2010</v>
@@ -23870,16 +23861,16 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="78" t="s">
-        <v>243</v>
-      </c>
-      <c r="B3" s="17">
+      <c r="A3" s="79" t="s">
+        <v>330</v>
+      </c>
+      <c r="B3" s="76">
         <v>2010</v>
       </c>
-      <c r="C3" s="78">
+      <c r="C3" s="79">
         <v>1.2</v>
       </c>
-      <c r="D3" s="78"/>
+      <c r="D3" s="79"/>
       <c r="H3">
         <v>2011</v>
       </c>
@@ -23901,14 +23892,14 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="78"/>
-      <c r="B4" s="17">
+      <c r="A4" s="79"/>
+      <c r="B4" s="76">
         <v>2020</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="76">
         <v>1.1499999999999999</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="76">
         <v>0.6</v>
       </c>
       <c r="H4">
@@ -23932,14 +23923,14 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="78"/>
-      <c r="B5" s="17">
+      <c r="A5" s="79"/>
+      <c r="B5" s="76">
         <v>2030</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="76">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="76">
         <v>0.6</v>
       </c>
       <c r="H5">
@@ -23963,14 +23954,14 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="78"/>
-      <c r="B6" s="17">
+      <c r="A6" s="79"/>
+      <c r="B6" s="76">
         <v>2050</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="76">
         <v>1</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="76">
         <v>0.6</v>
       </c>
       <c r="H6">
@@ -23994,16 +23985,16 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="78" t="s">
-        <v>244</v>
-      </c>
-      <c r="B7" s="17">
+      <c r="A7" s="79" t="s">
+        <v>331</v>
+      </c>
+      <c r="B7" s="76">
         <v>2010</v>
       </c>
-      <c r="C7" s="78">
+      <c r="C7" s="79">
         <v>3</v>
       </c>
-      <c r="D7" s="78"/>
+      <c r="D7" s="79"/>
       <c r="H7">
         <v>2015</v>
       </c>
@@ -24025,14 +24016,14 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="78"/>
-      <c r="B8" s="17">
+      <c r="A8" s="79"/>
+      <c r="B8" s="76">
         <v>2020</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="76">
         <v>2.25</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="76">
         <v>1.5</v>
       </c>
       <c r="H8">
@@ -24056,14 +24047,14 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="78"/>
-      <c r="B9" s="17">
+      <c r="A9" s="79"/>
+      <c r="B9" s="76">
         <v>2030</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="76">
         <v>2.15</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="76">
         <v>1.5</v>
       </c>
       <c r="H9">
@@ -24087,14 +24078,14 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="78"/>
-      <c r="B10" s="17">
+      <c r="A10" s="79"/>
+      <c r="B10" s="76">
         <v>2050</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="76">
         <v>2</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="76">
         <v>1.5</v>
       </c>
       <c r="H10">
@@ -24118,16 +24109,16 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="78" t="s">
-        <v>245</v>
-      </c>
-      <c r="B11" s="17">
+      <c r="A11" s="79" t="s">
+        <v>332</v>
+      </c>
+      <c r="B11" s="76">
         <v>2010</v>
       </c>
-      <c r="C11" s="78">
+      <c r="C11" s="79">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D11" s="78"/>
+      <c r="D11" s="79"/>
       <c r="H11">
         <v>2019</v>
       </c>
@@ -24149,14 +24140,14 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="78"/>
-      <c r="B12" s="17">
+      <c r="A12" s="79"/>
+      <c r="B12" s="76">
         <v>2020</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="76">
         <v>1.2</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="76">
         <v>1</v>
       </c>
       <c r="H12">
@@ -24180,14 +24171,14 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="78"/>
-      <c r="B13" s="17">
+      <c r="A13" s="79"/>
+      <c r="B13" s="76">
         <v>2030</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="76">
         <v>1.2</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="76">
         <v>1</v>
       </c>
       <c r="H13">
@@ -24211,14 +24202,14 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="78"/>
-      <c r="B14" s="17">
+      <c r="A14" s="79"/>
+      <c r="B14" s="76">
         <v>2050</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="76">
         <v>1.2</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="76">
         <v>1</v>
       </c>
       <c r="H14">
@@ -24242,16 +24233,16 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="78" t="s">
-        <v>246</v>
-      </c>
-      <c r="B15" s="17">
+      <c r="A15" s="79" t="s">
+        <v>333</v>
+      </c>
+      <c r="B15" s="76">
         <v>2010</v>
       </c>
-      <c r="C15" s="78">
+      <c r="C15" s="79">
         <v>2.5</v>
       </c>
-      <c r="D15" s="78"/>
+      <c r="D15" s="79"/>
       <c r="H15">
         <v>2023</v>
       </c>
@@ -24273,14 +24264,14 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="78"/>
-      <c r="B16" s="17">
+      <c r="A16" s="79"/>
+      <c r="B16" s="76">
         <v>2020</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="76">
         <v>1.5</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="76">
         <v>1.25</v>
       </c>
       <c r="H16">
@@ -24304,14 +24295,14 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="78"/>
-      <c r="B17" s="17">
+      <c r="A17" s="79"/>
+      <c r="B17" s="76">
         <v>2030</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="76">
         <v>1.5</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="76">
         <v>1.25</v>
       </c>
       <c r="H17">
@@ -24335,14 +24326,14 @@
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="78"/>
-      <c r="B18" s="17">
+      <c r="A18" s="79"/>
+      <c r="B18" s="76">
         <v>2050</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="76">
         <v>1.5</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="76">
         <v>1.25</v>
       </c>
       <c r="H18">
@@ -24366,16 +24357,16 @@
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="78" t="s">
-        <v>247</v>
-      </c>
-      <c r="B19" s="17">
+      <c r="A19" s="79" t="s">
+        <v>334</v>
+      </c>
+      <c r="B19" s="76">
         <v>2010</v>
       </c>
-      <c r="C19" s="78">
+      <c r="C19" s="79">
         <v>2.9</v>
       </c>
-      <c r="D19" s="78"/>
+      <c r="D19" s="79"/>
       <c r="H19">
         <v>2027</v>
       </c>
@@ -24397,14 +24388,14 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="78"/>
-      <c r="B20" s="17">
+      <c r="A20" s="79"/>
+      <c r="B20" s="76">
         <v>2020</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="76">
         <v>2.5</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="76">
         <v>1.5</v>
       </c>
       <c r="H20">
@@ -24428,14 +24419,14 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="78"/>
-      <c r="B21" s="17">
+      <c r="A21" s="79"/>
+      <c r="B21" s="76">
         <v>2030</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="76">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="76">
         <v>1.5</v>
       </c>
       <c r="H21">
@@ -24459,14 +24450,14 @@
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="78"/>
-      <c r="B22" s="17">
+      <c r="A22" s="79"/>
+      <c r="B22" s="76">
         <v>2050</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="76">
         <v>2.1</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="76">
         <v>1.5</v>
       </c>
       <c r="H22">
@@ -24490,16 +24481,16 @@
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="78" t="s">
-        <v>248</v>
-      </c>
-      <c r="B23" s="17">
+      <c r="A23" s="79" t="s">
+        <v>335</v>
+      </c>
+      <c r="B23" s="76">
         <v>2010</v>
       </c>
-      <c r="C23" s="78">
+      <c r="C23" s="79">
         <v>5</v>
       </c>
-      <c r="D23" s="78"/>
+      <c r="D23" s="79"/>
       <c r="H23">
         <v>2031</v>
       </c>
@@ -24521,14 +24512,14 @@
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="78"/>
-      <c r="B24" s="17">
+      <c r="A24" s="79"/>
+      <c r="B24" s="76">
         <v>2020</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="76">
         <v>4.5</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="76">
         <v>2.5</v>
       </c>
       <c r="H24">
@@ -24552,14 +24543,14 @@
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="78"/>
-      <c r="B25" s="17">
+      <c r="A25" s="79"/>
+      <c r="B25" s="76">
         <v>2030</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="76">
         <v>4</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="76">
         <v>2.5</v>
       </c>
       <c r="H25">
@@ -24583,14 +24574,14 @@
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="78"/>
-      <c r="B26" s="17">
+      <c r="A26" s="79"/>
+      <c r="B26" s="76">
         <v>2050</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="76">
         <v>3.5</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="76">
         <v>2.5</v>
       </c>
       <c r="H26">
@@ -24614,16 +24605,16 @@
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="78" t="s">
-        <v>249</v>
-      </c>
-      <c r="B27" s="17">
+      <c r="A27" s="79" t="s">
+        <v>336</v>
+      </c>
+      <c r="B27" s="76">
         <v>2010</v>
       </c>
-      <c r="C27" s="78">
+      <c r="C27" s="79">
         <v>6.5</v>
       </c>
-      <c r="D27" s="78"/>
+      <c r="D27" s="79"/>
       <c r="H27">
         <v>2035</v>
       </c>
@@ -24645,14 +24636,14 @@
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="78"/>
-      <c r="B28" s="17">
+      <c r="A28" s="79"/>
+      <c r="B28" s="76">
         <v>2020</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="76">
         <v>4.8</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="76">
         <v>3.07</v>
       </c>
       <c r="H28">
@@ -24676,14 +24667,14 @@
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="78"/>
-      <c r="B29" s="17">
+      <c r="A29" s="79"/>
+      <c r="B29" s="76">
         <v>2030</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="76">
         <v>4</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="76">
         <v>3.07</v>
       </c>
       <c r="H29">
@@ -24707,14 +24698,14 @@
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="78"/>
-      <c r="B30" s="17">
+      <c r="A30" s="79"/>
+      <c r="B30" s="76">
         <v>2050</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="76">
         <v>3.6</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="76">
         <v>3.07</v>
       </c>
       <c r="H30">
@@ -24738,6 +24729,10 @@
       </c>
     </row>
     <row r="31" spans="1:12">
+      <c r="A31" s="76"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
       <c r="H31">
         <v>2039</v>
       </c>
@@ -24759,6 +24754,10 @@
       </c>
     </row>
     <row r="32" spans="1:12">
+      <c r="A32" s="76"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
       <c r="H32">
         <v>2040</v>
       </c>
@@ -24991,11 +24990,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C3:D3"/>
@@ -25008,6 +25002,11 @@
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25031,16 +25030,16 @@
   <sheetData>
     <row r="1" spans="13:19">
       <c r="M1" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="N1">
         <v>18.010000000000002</v>
       </c>
       <c r="O1" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="Q1" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="S1">
         <v>0.12759999999999999</v>
@@ -25048,54 +25047,54 @@
     </row>
     <row r="2" spans="13:19">
       <c r="M2" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="N2">
         <f>13.38/10</f>
         <v>1.3380000000000001</v>
       </c>
       <c r="O2" t="s">
-        <v>369</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="13:19">
       <c r="M4" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="N4">
         <f>N1*S1</f>
         <v>2.298076</v>
       </c>
       <c r="O4" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="13:19">
       <c r="M5" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="N5">
         <f>N2*S1</f>
         <v>0.17072879999999999</v>
       </c>
       <c r="O5" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="13:19">
       <c r="M7" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="N7">
         <v>165</v>
       </c>
       <c r="O7" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="13:19">
       <c r="M9" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="N9" s="74">
         <f>SUM(N4:N5)*10^9/N7</f>
@@ -25109,15 +25108,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -25351,6 +25341,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -25361,47 +25360,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C53D4B8D-07E4-480A-9102-59E43F1C6BD5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F753106C-6C96-40DB-989F-DDACB7271E62}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F753106C-6C96-40DB-989F-DDACB7271E62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
-    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C53D4B8D-07E4-480A-9102-59E43F1C6BD5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{666A01E7-B2FB-4480-B432-5D73735A58CA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{666A01E7-B2FB-4480-B432-5D73735A58CA}"/>
 </file>
--- a/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
+++ b/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-2.0.0-us-wipF\InputData\elec\CCaMC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-hongkong\InputData\elec\CCaMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="8_{49BBDC4E-F4A1-4D4E-9667-F7F2C2294AED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3FF8CC6B-EB11-4C87-B3A4-8C7B1D6D7500}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -26,12 +25,14 @@
     <sheet name="CCaMC-VOaMCpUC" sheetId="8" r:id="rId11"/>
     <sheet name="CCaMC-BCCpUC" sheetId="6" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="418">
   <si>
     <t>CCaMC BAU Construction Cost per Unit Capacity</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1530,9 +1531,6 @@
     <t>MW</t>
   </si>
   <si>
-    <t xml:space="preserve">cost </t>
-  </si>
-  <si>
     <t>Fixed O&amp;M ($/MW)</t>
   </si>
   <si>
@@ -1594,21 +1592,190 @@
   </si>
   <si>
     <t>Offshore Wind ($/MW)</t>
+  </si>
+  <si>
+    <t>billion USD/year</t>
+  </si>
+  <si>
+    <t>municipal solid waste ($/MW)</t>
+  </si>
+  <si>
+    <t>https://www.legco.gov.hk/yr13-14/english/fc/pwsc/papers/p14-07e.pdf</t>
+  </si>
+  <si>
+    <t>ITEM FOR PUBLIC WORKS SUBCOMMITTEE
+OF FINANCE COMMITTEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We estimate the capital cost of the proposed works to be $18,245.7 million
+in MOD prices (please see paragraph 13 below), broken down as follows – </t>
+  </si>
+  <si>
+    <t>$ million</t>
+  </si>
+  <si>
+    <t>(a) Reclamation and civil works</t>
+  </si>
+  <si>
+    <t>(i) Seawall, reclamation and berth</t>
+  </si>
+  <si>
+    <t>(ii) Breakwaters</t>
+  </si>
+  <si>
+    <t>(iii) Civil and foundation works</t>
+  </si>
+  <si>
+    <t>(b) Building and architectural works</t>
+  </si>
+  <si>
+    <t>(i) Incineration plant building</t>
+  </si>
+  <si>
+    <t>(ii) Mechanical plant building</t>
+  </si>
+  <si>
+    <t>(iii) Associated buildings</t>
+  </si>
+  <si>
+    <t>(iv) Landscaping</t>
+  </si>
+  <si>
+    <t>(c) Mechanical and electrical works for incineration</t>
+  </si>
+  <si>
+    <t>(i) Waste receiving facilities</t>
+  </si>
+  <si>
+    <t>(ii) Waste incinerators</t>
+  </si>
+  <si>
+    <t>(iii) Boilers of waste heat recovery system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(iv) Steam turbines, generators and
+condensers of waste heat
+recovery system </t>
+  </si>
+  <si>
+    <t>(v) Flue gas treatment facilities</t>
+  </si>
+  <si>
+    <t>(vi) Ash treatment facilities</t>
+  </si>
+  <si>
+    <t>(vii) Associated electrical works</t>
+  </si>
+  <si>
+    <t>(viii) Instrumentation and control works</t>
+  </si>
+  <si>
+    <t>(ix) Miscellaneous installations</t>
+  </si>
+  <si>
+    <t>(d) Mechanical and electrical works for other associated facilities</t>
+  </si>
+  <si>
+    <t>(e) Power connection, substation, associated facilities and installations of the power export system</t>
+  </si>
+  <si>
+    <t>(f) Transportation supporting facilities</t>
+  </si>
+  <si>
+    <t>(g) Mitigation measures and EM&amp;A for construction work</t>
+  </si>
+  <si>
+    <t>(h) Consultants’ fees for</t>
+  </si>
+  <si>
+    <t>(i)contract administration</t>
+  </si>
+  <si>
+    <t>(ii)management of resident site staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(i) Remuneration of resident site staff </t>
+  </si>
+  <si>
+    <t>(j) Contingencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub-total 12,735.1 (in September
+2013 prices) </t>
+  </si>
+  <si>
+    <t>Sub-total in 2012 price</t>
+  </si>
+  <si>
+    <t>We adjust 2013 HKD to 2012 HKD using the following conversion factor:</t>
+  </si>
+  <si>
+    <t>2012 GDP</t>
+  </si>
+  <si>
+    <t>2013 GDP</t>
+  </si>
+  <si>
+    <t>At current market prices</t>
+  </si>
+  <si>
+    <t>In chained (2012) dollars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total  (in MOD
+prices) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(k) Provision for price adjustment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construction </t>
+  </si>
+  <si>
+    <t>2012 price</t>
+  </si>
+  <si>
+    <t>MSW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We estimate that the annual recurrent expenditure arising from the IWMF
+phase 1 to be about $402 million. The fees and charges implication arising from the
+project will be considered in the context of waste charging discussion. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">million </t>
+  </si>
+  <si>
+    <t>per year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the waste treatment process, the energy recovered will generate
+electricity for the use of IWMF phase 1. We plan to export the surplus electricity of
+about 480 million kWh2
+. </t>
+  </si>
+  <si>
+    <t>million KWH</t>
+  </si>
+  <si>
+    <t>We adjust 2013 dollars to 2012 dollars using the following conversion factor:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="8">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="###0;###0"/>
     <numFmt numFmtId="167" formatCode="###0.0;###0.0"/>
     <numFmt numFmtId="168" formatCode="###0.0"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1795,6 +1962,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1829,7 +2016,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2049,7 +2236,7 @@
     </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2222,13 +2409,27 @@
     <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="6" borderId="0" xfId="15" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2238,24 +2439,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="16">
-    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Body: normal cell" xfId="4"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Footnotes: all except top row" xfId="9" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Header: bottom row" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Header: top rows" xfId="10" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
+    <cellStyle name="Footnotes: all except top row" xfId="9"/>
+    <cellStyle name="Footnotes: top row" xfId="7"/>
+    <cellStyle name="Header: bottom row" xfId="2"/>
+    <cellStyle name="Header: top rows" xfId="10"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="11"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Parent row" xfId="3"/>
     <cellStyle name="Percent" xfId="14" builtinId="5"/>
-    <cellStyle name="Section Break" xfId="12" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Section Break: parent row" xfId="13" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Table title" xfId="1" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Section Break" xfId="12"/>
+    <cellStyle name="Section Break: parent row" xfId="13"/>
+    <cellStyle name="Table title" xfId="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2284,7 +2488,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Table Style 1" pivot="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -2311,7 +2515,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>284952</xdr:colOff>
+      <xdr:colOff>218277</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>56500</xdr:rowOff>
     </xdr:to>
@@ -2338,6 +2542,50 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="6380952" cy="5200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>418465</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>18436</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5790E47A-C3BA-4B50-BBE0-4B0FC040CC3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7639050" y="6343650"/>
+          <a:ext cx="5076190" cy="4914286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2425,23 +2673,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2477,23 +2708,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2669,23 +2883,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="91.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="77.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="56.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="10.7109375" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.1328125" style="2"/>
+    <col min="2" max="2" width="91.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.3984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="77.59765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.73046875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="56.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="10.73046875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2730,7 +2944,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30">
+    <row r="8" spans="1:4" ht="28.5">
       <c r="B8" s="53" t="s">
         <v>8</v>
       </c>
@@ -2782,7 +2996,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30">
+    <row r="15" spans="1:4" ht="28.5">
       <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
@@ -2790,7 +3004,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30">
+    <row r="16" spans="1:4">
       <c r="B16" s="66" t="s">
         <v>19</v>
       </c>
@@ -2855,7 +3069,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30">
+    <row r="24" spans="1:4" ht="28.5">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
         <v>29</v>
@@ -3242,7 +3456,9 @@
       <c r="K60" s="8"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61"/>
+      <c r="A61" t="s">
+        <v>417</v>
+      </c>
       <c r="B61" s="7"/>
       <c r="D61" s="5"/>
       <c r="E61" s="8"/>
@@ -3254,8 +3470,8 @@
       <c r="K61" s="8"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" t="s">
-        <v>57</v>
+      <c r="A62">
+        <v>0.98599999999999999</v>
       </c>
       <c r="B62" s="7"/>
       <c r="D62" s="5"/>
@@ -3268,6 +3484,7 @@
       <c r="K62" s="8"/>
     </row>
     <row r="63" spans="1:11">
+      <c r="A63"/>
       <c r="B63" s="7"/>
       <c r="D63" s="5"/>
       <c r="E63" s="8"/>
@@ -3279,6 +3496,10 @@
       <c r="K63" s="8"/>
     </row>
     <row r="64" spans="1:11">
+      <c r="A64" t="s">
+        <v>57</v>
+      </c>
+      <c r="B64" s="7"/>
       <c r="D64" s="5"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
@@ -3300,7 +3521,6 @@
       <c r="K65" s="8"/>
     </row>
     <row r="66" spans="2:11">
-      <c r="B66" s="7"/>
       <c r="D66" s="5"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
@@ -3422,6 +3642,14 @@
     </row>
     <row r="77" spans="2:11">
       <c r="B77" s="7"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
     </row>
     <row r="78" spans="2:11">
       <c r="B78" s="7"/>
@@ -3436,14 +3664,6 @@
     </row>
     <row r="79" spans="2:11">
       <c r="B79" s="7"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
     </row>
     <row r="80" spans="2:11">
       <c r="B80" s="7"/>
@@ -3468,7 +3688,6 @@
       <c r="K81" s="8"/>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="5"/>
       <c r="B82" s="7"/>
       <c r="D82" s="5"/>
       <c r="E82" s="8"/>
@@ -3491,6 +3710,7 @@
       <c r="K83" s="8"/>
     </row>
     <row r="84" spans="1:11">
+      <c r="A84" s="5"/>
       <c r="B84" s="7"/>
       <c r="D84" s="5"/>
       <c r="E84" s="8"/>
@@ -3513,6 +3733,7 @@
       <c r="K85" s="8"/>
     </row>
     <row r="86" spans="1:11">
+      <c r="B86" s="7"/>
       <c r="D86" s="5"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
@@ -3523,6 +3744,7 @@
       <c r="K86" s="8"/>
     </row>
     <row r="87" spans="1:11">
+      <c r="B87" s="7"/>
       <c r="D87" s="5"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
@@ -3642,14 +3864,34 @@
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
     </row>
+    <row r="99" spans="4:11">
+      <c r="D99" s="5"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
+    </row>
+    <row r="100" spans="4:11">
+      <c r="D100" s="5"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="8"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D16" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B17" r:id="rId3" display="http://www.irena.org/publications/2018/Jan/Renewable-power-generation-costs-in-2017" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B30" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A52" r:id="rId5" display="https://www.iea.org/statistics/?country=CHINA&amp;year=2016&amp;category=Electricity&amp;indicator=undefined&amp;mode=chart&amp;categoryBrowse=true&amp;dataTable=ELECTRICITYANDHEAT" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D9" r:id="rId1"/>
+    <hyperlink ref="D16" r:id="rId2"/>
+    <hyperlink ref="B17" r:id="rId3" display="http://www.irena.org/publications/2018/Jan/Renewable-power-generation-costs-in-2017"/>
+    <hyperlink ref="B30" r:id="rId4"/>
+    <hyperlink ref="A52" r:id="rId5" display="https://www.iea.org/statistics/?country=CHINA&amp;year=2016&amp;category=Electricity&amp;indicator=undefined&amp;mode=chart&amp;categoryBrowse=true&amp;dataTable=ELECTRICITYANDHEAT"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
@@ -3657,33 +3899,33 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="33.265625" customWidth="1"/>
+    <col min="2" max="2" width="23.1328125" customWidth="1"/>
+    <col min="3" max="3" width="28.59765625" customWidth="1"/>
+    <col min="4" max="4" width="23.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>124</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>127</v>
@@ -3844,7 +4086,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B11" s="4">
         <v>7340</v>
@@ -3875,7 +4117,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B13" s="4">
         <f>B2</f>
@@ -3909,7 +4151,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B15" s="4">
         <f>B11</f>
@@ -3925,7 +4167,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B16" s="4">
         <f>B11</f>
@@ -3941,18 +4183,18 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>352</v>
-      </c>
-      <c r="B17" s="75">
-        <f>'MSW HK'!N9</f>
-        <v>14962453.333333334</v>
-      </c>
-      <c r="C17" s="73">
+        <v>351</v>
+      </c>
+      <c r="B17" s="4">
+        <f>'MSW HK'!N5*10^9/'MSW HK'!N7</f>
+        <v>473402.41959958256</v>
+      </c>
+      <c r="C17">
         <v>0</v>
       </c>
-      <c r="D17" s="72">
+      <c r="D17" s="4">
         <f>B17</f>
-        <v>14962453.333333334</v>
+        <v>473402.41959958256</v>
       </c>
     </row>
   </sheetData>
@@ -3963,31 +4205,31 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B17" sqref="B17:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="1" max="1" width="33.265625" customWidth="1"/>
     <col min="2" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>124</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>127</v>
@@ -4147,7 +4389,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B11" s="69">
         <v>15.44</v>
@@ -4178,7 +4420,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B13" s="69">
         <f>B2</f>
@@ -4212,7 +4454,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B15" s="9">
         <f>B11</f>
@@ -4229,7 +4471,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B16" s="9">
         <f>B12</f>
@@ -4246,17 +4488,22 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>352</v>
-      </c>
-      <c r="B17">
-        <v>8.49</v>
-      </c>
-      <c r="C17">
+        <v>351</v>
+      </c>
+      <c r="B17" s="85">
+        <f>'EIA Costs'!E16*About!$A$62</f>
+        <v>8.6176399999999997</v>
+      </c>
+      <c r="C17" s="86">
         <v>0</v>
       </c>
-      <c r="D17">
-        <v>8.49</v>
-      </c>
+      <c r="D17" s="85">
+        <f>B17</f>
+        <v>8.6176399999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="B18" s="82"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -4266,88 +4513,90 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6" style="61" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="61" customWidth="1"/>
+    <col min="2" max="2" width="17.265625" style="61" customWidth="1"/>
     <col min="3" max="3" width="31" style="61" customWidth="1"/>
-    <col min="4" max="5" width="17.28515625" style="61" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="61" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="61" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" style="61" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" style="61" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" style="61" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" style="61" customWidth="1"/>
-    <col min="12" max="12" width="28.140625" style="61" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="22.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.7109375" style="61"/>
+    <col min="4" max="5" width="17.265625" style="61" customWidth="1"/>
+    <col min="6" max="6" width="23.1328125" style="61" customWidth="1"/>
+    <col min="7" max="7" width="17.265625" style="61" customWidth="1"/>
+    <col min="8" max="8" width="22.59765625" style="61" customWidth="1"/>
+    <col min="9" max="9" width="17.265625" style="61" customWidth="1"/>
+    <col min="10" max="10" width="22.3984375" style="61" customWidth="1"/>
+    <col min="11" max="11" width="20.86328125" style="61" customWidth="1"/>
+    <col min="12" max="12" width="28.1328125" style="61" customWidth="1"/>
+    <col min="13" max="13" width="19.1328125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="22.1328125" style="61" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.1328125" style="74" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.73046875" style="61" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.73046875" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18" ht="28.5">
       <c r="A1" s="60" t="s">
         <v>85</v>
       </c>
       <c r="B1" s="60" t="s">
+        <v>353</v>
+      </c>
+      <c r="C1" s="60" t="s">
         <v>354</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="D1" s="60" t="s">
         <v>355</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="E1" s="60" t="s">
         <v>356</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="F1" s="60" t="s">
         <v>357</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="G1" s="60" t="s">
         <v>358</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="H1" s="60" t="s">
         <v>359</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="I1" s="60" t="s">
         <v>360</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="J1" s="60" t="s">
         <v>361</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="K1" s="60" t="s">
         <v>362</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="L1" s="60" t="s">
         <v>363</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="M1" s="60" t="s">
         <v>364</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="N1" s="60" t="s">
         <v>365</v>
       </c>
-      <c r="N1" s="60" t="s">
-        <v>366</v>
-      </c>
       <c r="O1" s="60" t="s">
+        <v>349</v>
+      </c>
+      <c r="P1" s="60" t="s">
         <v>350</v>
       </c>
-      <c r="P1" s="60" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q1" s="60" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="Q1" s="83" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="62">
         <v>2016</v>
       </c>
@@ -4410,11 +4659,13 @@
         <f>K2</f>
         <v>654224.44741861895</v>
       </c>
-      <c r="Q2" s="63">
-        <v>7982156.7055278737</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="Q2" s="84">
+        <f>'MSW HK'!N4*10^9/'MSW HK'!N7</f>
+        <v>9683361.5776772462</v>
+      </c>
+      <c r="R2" s="63"/>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="62">
         <v>2017</v>
       </c>
@@ -4477,11 +4728,12 @@
         <f t="shared" ref="P3:P36" si="1">K3</f>
         <v>654225.44741861895</v>
       </c>
-      <c r="Q3" s="63">
-        <v>7971502.811055745</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="Q3" s="84">
+        <f>Q2</f>
+        <v>9683361.5776772462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="62">
         <v>2018</v>
       </c>
@@ -4544,11 +4796,12 @@
         <f t="shared" si="1"/>
         <v>652272.3387205411</v>
       </c>
-      <c r="Q4" s="63">
-        <v>7982156.7055278737</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="Q4" s="84">
+        <f t="shared" ref="Q4:Q10" si="3">Q3</f>
+        <v>9683361.5776772462</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="62">
         <v>2019</v>
       </c>
@@ -4611,11 +4864,12 @@
         <f t="shared" si="1"/>
         <v>649811.88595093053</v>
       </c>
-      <c r="Q5" s="63">
-        <v>7971502.811055745</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="Q5" s="84">
+        <f t="shared" si="3"/>
+        <v>9683361.5776772462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="62">
         <v>2020</v>
       </c>
@@ -4678,11 +4932,12 @@
         <f t="shared" si="1"/>
         <v>645390.95246922853</v>
       </c>
-      <c r="Q6" s="63">
-        <v>7958626.596631432</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="Q6" s="84">
+        <f t="shared" si="3"/>
+        <v>9683361.5776772462</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="62">
         <v>2021</v>
       </c>
@@ -4745,11 +5000,12 @@
         <f t="shared" si="1"/>
         <v>643437.69417805946</v>
       </c>
-      <c r="Q7" s="63">
-        <v>8047515.0385973537</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="Q7" s="84">
+        <f t="shared" si="3"/>
+        <v>9683361.5776772462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="62">
         <v>2022</v>
       </c>
@@ -4812,11 +5068,12 @@
         <f t="shared" si="1"/>
         <v>641442.67327765853</v>
       </c>
-      <c r="Q8" s="63">
-        <v>7840906.0539358519</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="Q8" s="84">
+        <f t="shared" si="3"/>
+        <v>9683361.5776772462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="62">
         <v>2023</v>
       </c>
@@ -4879,11 +5136,12 @@
         <f t="shared" si="1"/>
         <v>639489.166581125</v>
       </c>
-      <c r="Q9" s="63">
-        <v>7803020.8428130085</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="Q9" s="84">
+        <f t="shared" si="3"/>
+        <v>9683361.5776772462</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="62">
         <v>2024</v>
       </c>
@@ -4946,11 +5204,12 @@
         <f t="shared" si="1"/>
         <v>637536.40933158563</v>
       </c>
-      <c r="Q10" s="63">
-        <v>7768616.5588959409</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="Q10" s="84">
+        <f t="shared" si="3"/>
+        <v>9683361.5776772462</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="62">
         <v>2025</v>
       </c>
@@ -5013,11 +5272,12 @@
         <f t="shared" si="1"/>
         <v>635482.86120436469</v>
       </c>
-      <c r="Q11" s="63">
-        <v>7764569.8125896389</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="Q11" s="84">
+        <f>$Q$10*INDEX('Cost Improvement (other)'!$B$118:$AL$124,MATCH("biomass",'Cost Improvement (other)'!$A$118:$A$124,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement (other)'!$B$117:$AL$117,0))</f>
+        <v>9383430.4925892297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="62">
         <v>2026</v>
       </c>
@@ -5080,11 +5340,12 @@
         <f t="shared" si="1"/>
         <v>629014.61231266905</v>
       </c>
-      <c r="Q12" s="63">
-        <v>7757634.4939132584</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="Q12" s="84">
+        <f>$Q$10*INDEX('Cost Improvement (other)'!$B$118:$AL$124,MATCH("biomass",'Cost Improvement (other)'!$A$118:$A$124,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement (other)'!$B$117:$AL$117,0))</f>
+        <v>9356645.6240954902</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="62">
         <v>2027</v>
       </c>
@@ -5147,11 +5408,12 @@
         <f t="shared" si="1"/>
         <v>624104.63841106219</v>
       </c>
-      <c r="Q13" s="63">
-        <v>7746868.1516131693</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="Q13" s="84">
+        <f>$Q$10*INDEX('Cost Improvement (other)'!$B$118:$AL$124,MATCH("biomass",'Cost Improvement (other)'!$A$118:$A$124,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement (other)'!$B$117:$AL$117,0))</f>
+        <v>9329853.8267850615</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="62">
         <v>2028</v>
       </c>
@@ -5214,11 +5476,12 @@
         <f t="shared" si="1"/>
         <v>619575.81905558321</v>
       </c>
-      <c r="Q14" s="63">
-        <v>7728499.6649701986</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="Q14" s="84">
+        <f>$Q$10*INDEX('Cost Improvement (other)'!$B$118:$AL$124,MATCH("biomass",'Cost Improvement (other)'!$A$118:$A$124,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement (other)'!$B$117:$AL$117,0))</f>
+        <v>9303061.3560645226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="62">
         <v>2029</v>
       </c>
@@ -5281,11 +5544,12 @@
         <f t="shared" si="1"/>
         <v>616448.38075626816</v>
       </c>
-      <c r="Q15" s="63">
-        <v>7694951.9782399936</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="Q15" s="84">
+        <f>$Q$10*INDEX('Cost Improvement (other)'!$B$118:$AL$124,MATCH("biomass",'Cost Improvement (other)'!$A$118:$A$124,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement (other)'!$B$117:$AL$117,0))</f>
+        <v>9276277.187211372</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="62">
         <v>2030</v>
       </c>
@@ -5348,8 +5612,9 @@
         <f t="shared" si="1"/>
         <v>613103.989995774</v>
       </c>
-      <c r="Q16" s="63">
-        <v>7673261.2195788976</v>
+      <c r="Q16" s="84">
+        <f>$Q$10*INDEX('Cost Improvement (other)'!$B$118:$AL$124,MATCH("biomass",'Cost Improvement (other)'!$A$118:$A$124,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement (other)'!$B$117:$AL$117,0))</f>
+        <v>9249484.9326015376</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -5415,8 +5680,9 @@
         <f t="shared" si="1"/>
         <v>610100.70335621736</v>
       </c>
-      <c r="Q17" s="63">
-        <v>7651766.5026455559</v>
+      <c r="Q17" s="84">
+        <f>$Q$10*INDEX('Cost Improvement (other)'!$B$118:$AL$124,MATCH("biomass",'Cost Improvement (other)'!$A$118:$A$124,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement (other)'!$B$117:$AL$117,0))</f>
+        <v>9222687.933625862</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -5482,8 +5748,9 @@
         <f t="shared" si="1"/>
         <v>607777.3086571634</v>
       </c>
-      <c r="Q18" s="63">
-        <v>7626303.7360194027</v>
+      <c r="Q18" s="84">
+        <f>$Q$10*INDEX('Cost Improvement (other)'!$B$118:$AL$124,MATCH("biomass",'Cost Improvement (other)'!$A$118:$A$124,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement (other)'!$B$117:$AL$117,0))</f>
+        <v>9195901.6852810681</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -5549,8 +5816,9 @@
         <f t="shared" si="1"/>
         <v>605748.1000457817</v>
       </c>
-      <c r="Q19" s="63">
-        <v>7603867.4320185054</v>
+      <c r="Q19" s="84">
+        <f>$Q$10*INDEX('Cost Improvement (other)'!$B$118:$AL$124,MATCH("biomass",'Cost Improvement (other)'!$A$118:$A$124,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement (other)'!$B$117:$AL$117,0))</f>
+        <v>9169114.6061549317</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -5616,8 +5884,9 @@
         <f t="shared" si="1"/>
         <v>603684.81012468517</v>
       </c>
-      <c r="Q20" s="63">
-        <v>7587101.1716198716</v>
+      <c r="Q20" s="84">
+        <f>$Q$10*INDEX('Cost Improvement (other)'!$B$118:$AL$124,MATCH("biomass",'Cost Improvement (other)'!$A$118:$A$124,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement (other)'!$B$117:$AL$117,0))</f>
+        <v>9142323.459139768</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -5683,8 +5952,9 @@
         <f t="shared" si="1"/>
         <v>601330.37504906254</v>
       </c>
-      <c r="Q21" s="63">
-        <v>7561294.8637536224</v>
+      <c r="Q21" s="84">
+        <f>$Q$10*INDEX('Cost Improvement (other)'!$B$118:$AL$124,MATCH("biomass",'Cost Improvement (other)'!$A$118:$A$124,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement (other)'!$B$117:$AL$117,0))</f>
+        <v>9115531.9516623393</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -5750,8 +6020,9 @@
         <f t="shared" si="1"/>
         <v>598957.8048655868</v>
       </c>
-      <c r="Q22" s="63">
-        <v>7538547.4766855622</v>
+      <c r="Q22" s="84">
+        <f>$Q$10*INDEX('Cost Improvement (other)'!$B$118:$AL$124,MATCH("biomass",'Cost Improvement (other)'!$A$118:$A$124,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement (other)'!$B$117:$AL$117,0))</f>
+        <v>9088738.3691054042</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -5817,8 +6088,9 @@
         <f t="shared" si="1"/>
         <v>596955.4197425656</v>
       </c>
-      <c r="Q23" s="63">
-        <v>7514086.0827102391</v>
+      <c r="Q23" s="84">
+        <f>$Q$10*INDEX('Cost Improvement (other)'!$B$118:$AL$124,MATCH("biomass",'Cost Improvement (other)'!$A$118:$A$124,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement (other)'!$B$117:$AL$117,0))</f>
+        <v>9061950.6935845464</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -5884,8 +6156,9 @@
         <f t="shared" si="1"/>
         <v>594440.08024455211</v>
       </c>
-      <c r="Q24" s="63">
-        <v>7493538.9828844583</v>
+      <c r="Q24" s="84">
+        <f>$Q$10*INDEX('Cost Improvement (other)'!$B$118:$AL$124,MATCH("biomass",'Cost Improvement (other)'!$A$118:$A$124,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement (other)'!$B$117:$AL$117,0))</f>
+        <v>9035158.8301438484</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -5951,8 +6224,9 @@
         <f t="shared" si="1"/>
         <v>592434.16432381817</v>
       </c>
-      <c r="Q25" s="63">
-        <v>7469211.21148971</v>
+      <c r="Q25" s="84">
+        <f>$Q$10*INDEX('Cost Improvement (other)'!$B$118:$AL$124,MATCH("biomass",'Cost Improvement (other)'!$A$118:$A$124,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement (other)'!$B$117:$AL$117,0))</f>
+        <v>9008371.9235372487</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -6018,8 +6292,9 @@
         <f t="shared" si="1"/>
         <v>590089.47107294935</v>
       </c>
-      <c r="Q26" s="63">
-        <v>7445775.4433545973</v>
+      <c r="Q26" s="84">
+        <f>$Q$10*INDEX('Cost Improvement (other)'!$B$118:$AL$124,MATCH("biomass",'Cost Improvement (other)'!$A$118:$A$124,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement (other)'!$B$117:$AL$117,0))</f>
+        <v>8981575.6644978654</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -6085,8 +6360,9 @@
         <f t="shared" si="1"/>
         <v>587788.019180667</v>
       </c>
-      <c r="Q27" s="63">
-        <v>7429595.5857021902</v>
+      <c r="Q27" s="84">
+        <f>$Q$10*INDEX('Cost Improvement (other)'!$B$118:$AL$124,MATCH("biomass",'Cost Improvement (other)'!$A$118:$A$124,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement (other)'!$B$117:$AL$117,0))</f>
+        <v>8954784.7376875002</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -6152,8 +6428,9 @@
         <f t="shared" si="1"/>
         <v>585486.56728838454</v>
       </c>
-      <c r="Q28" s="63">
-        <v>7397570.8487657513</v>
+      <c r="Q28" s="84">
+        <f>$Q$10*INDEX('Cost Improvement (other)'!$B$118:$AL$124,MATCH("biomass",'Cost Improvement (other)'!$A$118:$A$124,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement (other)'!$B$117:$AL$117,0))</f>
+        <v>8927993.8108771313</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -6219,8 +6496,9 @@
         <f t="shared" si="1"/>
         <v>583185.11539610196</v>
       </c>
-      <c r="Q29" s="63">
-        <v>7385036.9682956832</v>
+      <c r="Q29" s="84">
+        <f>$Q$10*INDEX('Cost Improvement (other)'!$B$118:$AL$124,MATCH("biomass",'Cost Improvement (other)'!$A$118:$A$124,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement (other)'!$B$117:$AL$117,0))</f>
+        <v>8901202.8840667661</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -6286,8 +6564,9 @@
         <f t="shared" si="1"/>
         <v>580883.66350381961</v>
       </c>
-      <c r="Q30" s="63">
-        <v>7354522.1212749518</v>
+      <c r="Q30" s="84">
+        <f>$Q$10*INDEX('Cost Improvement (other)'!$B$118:$AL$124,MATCH("biomass",'Cost Improvement (other)'!$A$118:$A$124,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement (other)'!$B$117:$AL$117,0))</f>
+        <v>8874411.9572563972</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -6353,8 +6632,9 @@
         <f t="shared" si="1"/>
         <v>578582.21161153703</v>
       </c>
-      <c r="Q31" s="63">
-        <v>7340437.2226737272</v>
+      <c r="Q31" s="84">
+        <f>$Q$10*INDEX('Cost Improvement (other)'!$B$118:$AL$124,MATCH("biomass",'Cost Improvement (other)'!$A$118:$A$124,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement (other)'!$B$117:$AL$117,0))</f>
+        <v>8847621.0304460321</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -6420,8 +6700,9 @@
         <f t="shared" si="1"/>
         <v>576280.75971925457</v>
       </c>
-      <c r="Q32" s="63">
-        <v>7312648.7933935076</v>
+      <c r="Q32" s="84">
+        <f>$Q$10*INDEX('Cost Improvement (other)'!$B$118:$AL$124,MATCH("biomass",'Cost Improvement (other)'!$A$118:$A$124,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement (other)'!$B$117:$AL$117,0))</f>
+        <v>8820830.1036356632</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -6487,8 +6768,9 @@
         <f t="shared" si="1"/>
         <v>573979.3078269721</v>
       </c>
-      <c r="Q33" s="63">
-        <v>7291302.5022382103</v>
+      <c r="Q33" s="84">
+        <f>$Q$10*INDEX('Cost Improvement (other)'!$B$118:$AL$124,MATCH("biomass",'Cost Improvement (other)'!$A$118:$A$124,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement (other)'!$B$117:$AL$117,0))</f>
+        <v>8794039.176825298</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -6554,8 +6836,9 @@
         <f t="shared" si="1"/>
         <v>571677.85593468964</v>
       </c>
-      <c r="Q34" s="63">
-        <v>7269844.3251363151</v>
+      <c r="Q34" s="84">
+        <f>$Q$10*INDEX('Cost Improvement (other)'!$B$118:$AL$124,MATCH("biomass",'Cost Improvement (other)'!$A$118:$A$124,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement (other)'!$B$117:$AL$117,0))</f>
+        <v>8767248.2500149291</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -6621,8 +6904,9 @@
         <f t="shared" si="1"/>
         <v>569376.40404240706</v>
       </c>
-      <c r="Q35" s="63">
-        <v>7247772.4406001931</v>
+      <c r="Q35" s="84">
+        <f>$Q$10*INDEX('Cost Improvement (other)'!$B$118:$AL$124,MATCH("biomass",'Cost Improvement (other)'!$A$118:$A$124,0),MATCH('CCaMC-BCCpUC'!$A35,'Cost Improvement (other)'!$B$117:$AL$117,0))</f>
+        <v>8740457.3232045621</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -6688,8 +6972,9 @@
         <f t="shared" si="1"/>
         <v>567074.95215012471</v>
       </c>
-      <c r="Q36" s="63">
-        <v>7173106.1111970115</v>
+      <c r="Q36" s="84">
+        <f>$Q$10*INDEX('Cost Improvement (other)'!$B$118:$AL$124,MATCH("biomass",'Cost Improvement (other)'!$A$118:$A$124,0),MATCH('CCaMC-BCCpUC'!$A36,'Cost Improvement (other)'!$B$117:$AL$117,0))</f>
+        <v>8713666.396394195</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -6734,45 +7019,46 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.59765625" customWidth="1"/>
+    <col min="3" max="3" width="8.3984375" customWidth="1"/>
+    <col min="5" max="5" width="18.73046875" customWidth="1"/>
+    <col min="6" max="6" width="7.86328125" customWidth="1"/>
+    <col min="7" max="7" width="13.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77" t="s">
+      <c r="C1" s="87"/>
+      <c r="D1" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77" t="s">
+      <c r="E1" s="87"/>
+      <c r="F1" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="77"/>
+      <c r="G1" s="87"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="77"/>
+      <c r="A2" s="87"/>
       <c r="B2" t="s">
         <v>62</v>
       </c>
@@ -6966,19 +7252,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="33.86328125" customWidth="1"/>
+    <col min="2" max="2" width="23.3984375" customWidth="1"/>
+    <col min="3" max="3" width="20.1328125" customWidth="1"/>
+    <col min="4" max="4" width="16.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -7050,7 +7336,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="28.5">
+    <row r="7" spans="1:11" ht="27">
       <c r="A7" s="13"/>
       <c r="B7" s="14" t="s">
         <v>81</v>
@@ -7063,7 +7349,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="57">
+    <row r="8" spans="1:11" ht="40.5">
       <c r="A8" s="14" t="s">
         <v>83</v>
       </c>
@@ -7378,7 +7664,7 @@
       <c r="K23" s="55"/>
       <c r="L23" s="55"/>
     </row>
-    <row r="24" spans="1:12" ht="42.75">
+    <row r="24" spans="1:12" ht="40.5">
       <c r="A24" s="56" t="s">
         <v>102</v>
       </c>
@@ -7950,19 +8236,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" customWidth="1"/>
+    <col min="2" max="2" width="18.1328125" customWidth="1"/>
+    <col min="3" max="3" width="20.1328125" customWidth="1"/>
+    <col min="4" max="4" width="19.265625" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8014,21 +8300,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.3984375" customWidth="1"/>
+    <col min="2" max="2" width="18.86328125" customWidth="1"/>
+    <col min="3" max="3" width="34.73046875" customWidth="1"/>
+    <col min="4" max="4" width="34.3984375" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="6" width="29.140625" customWidth="1"/>
+    <col min="6" max="6" width="29.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -8432,24 +8718,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.86328125" customWidth="1"/>
+    <col min="11" max="11" width="8.86328125" customWidth="1"/>
+    <col min="12" max="12" width="15.59765625" customWidth="1"/>
+    <col min="13" max="13" width="11.59765625" customWidth="1"/>
+    <col min="14" max="14" width="12.73046875" customWidth="1"/>
+    <col min="15" max="15" width="12.59765625" customWidth="1"/>
+    <col min="16" max="16" width="13.59765625" customWidth="1"/>
+    <col min="17" max="17" width="10.86328125" customWidth="1"/>
+    <col min="18" max="18" width="10.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="55.5" customHeight="1">
@@ -8612,7 +8898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="24">
+    <row r="5" spans="1:18" ht="23.25">
       <c r="A5" s="22"/>
       <c r="B5" s="24" t="s">
         <v>170</v>
@@ -8637,6 +8923,9 @@
       </c>
       <c r="I5" s="24" t="s">
         <v>176</v>
+      </c>
+      <c r="L5" s="53" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -8840,17 +9129,17 @@
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="88" t="s">
         <v>194</v>
       </c>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="36" t="s">
@@ -9136,17 +9425,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM124"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="E119" sqref="E119"/>
+    <sheetView topLeftCell="T109" workbookViewId="0">
+      <selection activeCell="AL124" sqref="AL124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39">
@@ -23793,35 +24082,35 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="17"/>
-    <col min="3" max="3" width="18.5703125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="23.3984375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="8.73046875" style="17"/>
+    <col min="3" max="3" width="18.59765625" style="17" customWidth="1"/>
     <col min="4" max="4" width="15" style="17" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.3984375" customWidth="1"/>
+    <col min="10" max="10" width="14.59765625" customWidth="1"/>
+    <col min="12" max="12" width="13.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="89" t="s">
         <v>321</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="89" t="s">
         <v>322</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="89" t="s">
         <v>323</v>
       </c>
-      <c r="D1" s="79"/>
+      <c r="D1" s="89"/>
       <c r="I1" t="s">
         <v>324</v>
       </c>
@@ -23835,13 +24124,13 @@
         <v>327</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="45">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="76" t="s">
+    <row r="2" spans="1:12" ht="28.5">
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="72" t="s">
         <v>328</v>
       </c>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="72" t="s">
         <v>329</v>
       </c>
       <c r="H2">
@@ -23861,16 +24150,16 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="89" t="s">
         <v>330</v>
       </c>
-      <c r="B3" s="76">
+      <c r="B3" s="72">
         <v>2010</v>
       </c>
-      <c r="C3" s="79">
+      <c r="C3" s="89">
         <v>1.2</v>
       </c>
-      <c r="D3" s="79"/>
+      <c r="D3" s="89"/>
       <c r="H3">
         <v>2011</v>
       </c>
@@ -23892,14 +24181,14 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="79"/>
-      <c r="B4" s="76">
+      <c r="A4" s="89"/>
+      <c r="B4" s="72">
         <v>2020</v>
       </c>
-      <c r="C4" s="76">
+      <c r="C4" s="72">
         <v>1.1499999999999999</v>
       </c>
-      <c r="D4" s="76">
+      <c r="D4" s="72">
         <v>0.6</v>
       </c>
       <c r="H4">
@@ -23923,14 +24212,14 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="79"/>
-      <c r="B5" s="76">
+      <c r="A5" s="89"/>
+      <c r="B5" s="72">
         <v>2030</v>
       </c>
-      <c r="C5" s="76">
+      <c r="C5" s="72">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D5" s="76">
+      <c r="D5" s="72">
         <v>0.6</v>
       </c>
       <c r="H5">
@@ -23954,14 +24243,14 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="79"/>
-      <c r="B6" s="76">
+      <c r="A6" s="89"/>
+      <c r="B6" s="72">
         <v>2050</v>
       </c>
-      <c r="C6" s="76">
+      <c r="C6" s="72">
         <v>1</v>
       </c>
-      <c r="D6" s="76">
+      <c r="D6" s="72">
         <v>0.6</v>
       </c>
       <c r="H6">
@@ -23985,16 +24274,16 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="89" t="s">
         <v>331</v>
       </c>
-      <c r="B7" s="76">
+      <c r="B7" s="72">
         <v>2010</v>
       </c>
-      <c r="C7" s="79">
+      <c r="C7" s="89">
         <v>3</v>
       </c>
-      <c r="D7" s="79"/>
+      <c r="D7" s="89"/>
       <c r="H7">
         <v>2015</v>
       </c>
@@ -24016,14 +24305,14 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="79"/>
-      <c r="B8" s="76">
+      <c r="A8" s="89"/>
+      <c r="B8" s="72">
         <v>2020</v>
       </c>
-      <c r="C8" s="76">
+      <c r="C8" s="72">
         <v>2.25</v>
       </c>
-      <c r="D8" s="76">
+      <c r="D8" s="72">
         <v>1.5</v>
       </c>
       <c r="H8">
@@ -24047,14 +24336,14 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="79"/>
-      <c r="B9" s="76">
+      <c r="A9" s="89"/>
+      <c r="B9" s="72">
         <v>2030</v>
       </c>
-      <c r="C9" s="76">
+      <c r="C9" s="72">
         <v>2.15</v>
       </c>
-      <c r="D9" s="76">
+      <c r="D9" s="72">
         <v>1.5</v>
       </c>
       <c r="H9">
@@ -24078,14 +24367,14 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="79"/>
-      <c r="B10" s="76">
+      <c r="A10" s="89"/>
+      <c r="B10" s="72">
         <v>2050</v>
       </c>
-      <c r="C10" s="76">
+      <c r="C10" s="72">
         <v>2</v>
       </c>
-      <c r="D10" s="76">
+      <c r="D10" s="72">
         <v>1.5</v>
       </c>
       <c r="H10">
@@ -24109,16 +24398,16 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="89" t="s">
         <v>332</v>
       </c>
-      <c r="B11" s="76">
+      <c r="B11" s="72">
         <v>2010</v>
       </c>
-      <c r="C11" s="79">
+      <c r="C11" s="89">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D11" s="79"/>
+      <c r="D11" s="89"/>
       <c r="H11">
         <v>2019</v>
       </c>
@@ -24140,14 +24429,14 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="79"/>
-      <c r="B12" s="76">
+      <c r="A12" s="89"/>
+      <c r="B12" s="72">
         <v>2020</v>
       </c>
-      <c r="C12" s="76">
+      <c r="C12" s="72">
         <v>1.2</v>
       </c>
-      <c r="D12" s="76">
+      <c r="D12" s="72">
         <v>1</v>
       </c>
       <c r="H12">
@@ -24171,14 +24460,14 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="79"/>
-      <c r="B13" s="76">
+      <c r="A13" s="89"/>
+      <c r="B13" s="72">
         <v>2030</v>
       </c>
-      <c r="C13" s="76">
+      <c r="C13" s="72">
         <v>1.2</v>
       </c>
-      <c r="D13" s="76">
+      <c r="D13" s="72">
         <v>1</v>
       </c>
       <c r="H13">
@@ -24202,14 +24491,14 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="79"/>
-      <c r="B14" s="76">
+      <c r="A14" s="89"/>
+      <c r="B14" s="72">
         <v>2050</v>
       </c>
-      <c r="C14" s="76">
+      <c r="C14" s="72">
         <v>1.2</v>
       </c>
-      <c r="D14" s="76">
+      <c r="D14" s="72">
         <v>1</v>
       </c>
       <c r="H14">
@@ -24233,16 +24522,16 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="89" t="s">
         <v>333</v>
       </c>
-      <c r="B15" s="76">
+      <c r="B15" s="72">
         <v>2010</v>
       </c>
-      <c r="C15" s="79">
+      <c r="C15" s="89">
         <v>2.5</v>
       </c>
-      <c r="D15" s="79"/>
+      <c r="D15" s="89"/>
       <c r="H15">
         <v>2023</v>
       </c>
@@ -24264,14 +24553,14 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="79"/>
-      <c r="B16" s="76">
+      <c r="A16" s="89"/>
+      <c r="B16" s="72">
         <v>2020</v>
       </c>
-      <c r="C16" s="76">
+      <c r="C16" s="72">
         <v>1.5</v>
       </c>
-      <c r="D16" s="76">
+      <c r="D16" s="72">
         <v>1.25</v>
       </c>
       <c r="H16">
@@ -24295,14 +24584,14 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="79"/>
-      <c r="B17" s="76">
+      <c r="A17" s="89"/>
+      <c r="B17" s="72">
         <v>2030</v>
       </c>
-      <c r="C17" s="76">
+      <c r="C17" s="72">
         <v>1.5</v>
       </c>
-      <c r="D17" s="76">
+      <c r="D17" s="72">
         <v>1.25</v>
       </c>
       <c r="H17">
@@ -24326,14 +24615,14 @@
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="79"/>
-      <c r="B18" s="76">
+      <c r="A18" s="89"/>
+      <c r="B18" s="72">
         <v>2050</v>
       </c>
-      <c r="C18" s="76">
+      <c r="C18" s="72">
         <v>1.5</v>
       </c>
-      <c r="D18" s="76">
+      <c r="D18" s="72">
         <v>1.25</v>
       </c>
       <c r="H18">
@@ -24357,16 +24646,16 @@
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="79" t="s">
+      <c r="A19" s="89" t="s">
         <v>334</v>
       </c>
-      <c r="B19" s="76">
+      <c r="B19" s="72">
         <v>2010</v>
       </c>
-      <c r="C19" s="79">
+      <c r="C19" s="89">
         <v>2.9</v>
       </c>
-      <c r="D19" s="79"/>
+      <c r="D19" s="89"/>
       <c r="H19">
         <v>2027</v>
       </c>
@@ -24388,14 +24677,14 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="79"/>
-      <c r="B20" s="76">
+      <c r="A20" s="89"/>
+      <c r="B20" s="72">
         <v>2020</v>
       </c>
-      <c r="C20" s="76">
+      <c r="C20" s="72">
         <v>2.5</v>
       </c>
-      <c r="D20" s="76">
+      <c r="D20" s="72">
         <v>1.5</v>
       </c>
       <c r="H20">
@@ -24419,14 +24708,14 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="79"/>
-      <c r="B21" s="76">
+      <c r="A21" s="89"/>
+      <c r="B21" s="72">
         <v>2030</v>
       </c>
-      <c r="C21" s="76">
+      <c r="C21" s="72">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D21" s="76">
+      <c r="D21" s="72">
         <v>1.5</v>
       </c>
       <c r="H21">
@@ -24450,14 +24739,14 @@
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="79"/>
-      <c r="B22" s="76">
+      <c r="A22" s="89"/>
+      <c r="B22" s="72">
         <v>2050</v>
       </c>
-      <c r="C22" s="76">
+      <c r="C22" s="72">
         <v>2.1</v>
       </c>
-      <c r="D22" s="76">
+      <c r="D22" s="72">
         <v>1.5</v>
       </c>
       <c r="H22">
@@ -24481,16 +24770,16 @@
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="79" t="s">
+      <c r="A23" s="89" t="s">
         <v>335</v>
       </c>
-      <c r="B23" s="76">
+      <c r="B23" s="72">
         <v>2010</v>
       </c>
-      <c r="C23" s="79">
+      <c r="C23" s="89">
         <v>5</v>
       </c>
-      <c r="D23" s="79"/>
+      <c r="D23" s="89"/>
       <c r="H23">
         <v>2031</v>
       </c>
@@ -24512,14 +24801,14 @@
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="79"/>
-      <c r="B24" s="76">
+      <c r="A24" s="89"/>
+      <c r="B24" s="72">
         <v>2020</v>
       </c>
-      <c r="C24" s="76">
+      <c r="C24" s="72">
         <v>4.5</v>
       </c>
-      <c r="D24" s="76">
+      <c r="D24" s="72">
         <v>2.5</v>
       </c>
       <c r="H24">
@@ -24543,14 +24832,14 @@
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="79"/>
-      <c r="B25" s="76">
+      <c r="A25" s="89"/>
+      <c r="B25" s="72">
         <v>2030</v>
       </c>
-      <c r="C25" s="76">
+      <c r="C25" s="72">
         <v>4</v>
       </c>
-      <c r="D25" s="76">
+      <c r="D25" s="72">
         <v>2.5</v>
       </c>
       <c r="H25">
@@ -24574,14 +24863,14 @@
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="79"/>
-      <c r="B26" s="76">
+      <c r="A26" s="89"/>
+      <c r="B26" s="72">
         <v>2050</v>
       </c>
-      <c r="C26" s="76">
+      <c r="C26" s="72">
         <v>3.5</v>
       </c>
-      <c r="D26" s="76">
+      <c r="D26" s="72">
         <v>2.5</v>
       </c>
       <c r="H26">
@@ -24605,16 +24894,16 @@
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="79" t="s">
+      <c r="A27" s="89" t="s">
         <v>336</v>
       </c>
-      <c r="B27" s="76">
+      <c r="B27" s="72">
         <v>2010</v>
       </c>
-      <c r="C27" s="79">
+      <c r="C27" s="89">
         <v>6.5</v>
       </c>
-      <c r="D27" s="79"/>
+      <c r="D27" s="89"/>
       <c r="H27">
         <v>2035</v>
       </c>
@@ -24636,14 +24925,14 @@
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="79"/>
-      <c r="B28" s="76">
+      <c r="A28" s="89"/>
+      <c r="B28" s="72">
         <v>2020</v>
       </c>
-      <c r="C28" s="76">
+      <c r="C28" s="72">
         <v>4.8</v>
       </c>
-      <c r="D28" s="76">
+      <c r="D28" s="72">
         <v>3.07</v>
       </c>
       <c r="H28">
@@ -24667,14 +24956,14 @@
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="79"/>
-      <c r="B29" s="76">
+      <c r="A29" s="89"/>
+      <c r="B29" s="72">
         <v>2030</v>
       </c>
-      <c r="C29" s="76">
+      <c r="C29" s="72">
         <v>4</v>
       </c>
-      <c r="D29" s="76">
+      <c r="D29" s="72">
         <v>3.07</v>
       </c>
       <c r="H29">
@@ -24698,14 +24987,14 @@
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="79"/>
-      <c r="B30" s="76">
+      <c r="A30" s="89"/>
+      <c r="B30" s="72">
         <v>2050</v>
       </c>
-      <c r="C30" s="76">
+      <c r="C30" s="72">
         <v>3.6</v>
       </c>
-      <c r="D30" s="76">
+      <c r="D30" s="72">
         <v>3.07</v>
       </c>
       <c r="H30">
@@ -24729,10 +25018,10 @@
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="76"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
+      <c r="A31" s="72"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
       <c r="H31">
         <v>2039</v>
       </c>
@@ -24754,10 +25043,10 @@
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="76"/>
-      <c r="B32" s="76"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
+      <c r="A32" s="72"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
       <c r="H32">
         <v>2040</v>
       </c>
@@ -24990,6 +25279,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C3:D3"/>
@@ -25002,11 +25296,6 @@
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25014,74 +25303,83 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337F4D1D-3FBA-4E74-8B3D-8AD70E04A037}">
-  <dimension ref="M1:S9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T77"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="13" max="13" width="12.5703125" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.59765625" customWidth="1"/>
+    <col min="14" max="14" width="15.265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.3984375" customWidth="1"/>
+    <col min="20" max="20" width="12.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="13:19">
+    <row r="1" spans="13:20">
       <c r="M1" t="s">
         <v>337</v>
       </c>
-      <c r="N1">
-        <v>18.010000000000002</v>
+      <c r="N1" s="11">
+        <f>I66/1000</f>
+        <v>12.521588246996441</v>
       </c>
       <c r="O1" t="s">
         <v>338</v>
       </c>
       <c r="Q1" t="s">
+        <v>410</v>
+      </c>
+      <c r="R1" t="s">
         <v>339</v>
       </c>
-      <c r="S1">
+      <c r="T1">
         <v>0.12759999999999999</v>
       </c>
     </row>
-    <row r="2" spans="13:19">
+    <row r="2" spans="13:20">
       <c r="M2" t="s">
         <v>340</v>
       </c>
-      <c r="N2">
-        <f>13.38/10</f>
-        <v>1.3380000000000001</v>
+      <c r="N2" s="11">
+        <f>13.38/15*(N1*1000/I65)</f>
+        <v>0.61215830120635684</v>
       </c>
       <c r="O2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="4" spans="13:19">
+      <c r="Q2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="4" spans="13:20">
       <c r="M4" t="s">
         <v>337</v>
       </c>
-      <c r="N4">
-        <f>N1*S1</f>
-        <v>2.298076</v>
+      <c r="N4" s="11">
+        <f>N1*T1</f>
+        <v>1.5977546603167456</v>
       </c>
       <c r="O4" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="5" spans="13:19">
+    <row r="5" spans="13:20">
       <c r="M5" t="s">
         <v>340</v>
       </c>
-      <c r="N5">
-        <f>N2*S1</f>
-        <v>0.17072879999999999</v>
+      <c r="N5" s="11">
+        <f>N2*T1</f>
+        <v>7.8111399233931122E-2</v>
       </c>
       <c r="O5" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="7" spans="13:19">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="7" spans="13:20">
       <c r="M7" t="s">
         <v>343</v>
       </c>
@@ -25092,47 +25390,542 @@
         <v>344</v>
       </c>
     </row>
-    <row r="9" spans="13:19">
-      <c r="M9" t="s">
-        <v>345</v>
-      </c>
-      <c r="N9" s="74">
-        <f>SUM(N4:N5)*10^9/N7</f>
-        <v>14962453.333333334</v>
+    <row r="9" spans="13:20">
+      <c r="N9" s="73"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="75" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="75" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="I34" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="77" t="s">
+        <v>372</v>
+      </c>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="79">
+        <v>2434.4</v>
+      </c>
+      <c r="K35" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="76" t="s">
+        <v>373</v>
+      </c>
+      <c r="I36" s="78">
+        <v>1081.5999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="76" t="s">
+        <v>374</v>
+      </c>
+      <c r="I37" s="78">
+        <v>904.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="76" t="s">
+        <v>375</v>
+      </c>
+      <c r="I38" s="78">
+        <v>448.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="77" t="s">
+        <v>376</v>
+      </c>
+      <c r="B39" s="77"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="79">
+        <v>1139.0999999999999</v>
+      </c>
+      <c r="K39" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="76" t="s">
+        <v>377</v>
+      </c>
+      <c r="I40" s="78">
+        <v>843.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="76" t="s">
+        <v>378</v>
+      </c>
+      <c r="I41" s="78">
+        <v>125.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="76" t="s">
+        <v>379</v>
+      </c>
+      <c r="I42" s="78">
+        <v>83.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="76" t="s">
+        <v>380</v>
+      </c>
+      <c r="I43" s="78">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="77" t="s">
+        <v>381</v>
+      </c>
+      <c r="B44" s="77"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="77"/>
+      <c r="I44" s="79">
+        <v>6407.2</v>
+      </c>
+      <c r="K44" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="76" t="s">
+        <v>382</v>
+      </c>
+      <c r="I45" s="78">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="76" t="s">
+        <v>383</v>
+      </c>
+      <c r="I46" s="78">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="76" t="s">
+        <v>384</v>
+      </c>
+      <c r="I47" s="78">
+        <v>1171.0999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="76" t="s">
+        <v>385</v>
+      </c>
+      <c r="I48" s="78">
+        <v>850.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="I49" s="78">
+        <v>948.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="76" t="s">
+        <v>387</v>
+      </c>
+      <c r="I50" s="78">
+        <v>439.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="76" t="s">
+        <v>388</v>
+      </c>
+      <c r="I51" s="78">
+        <v>854.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="76" t="s">
+        <v>389</v>
+      </c>
+      <c r="I52" s="78">
+        <v>319.89999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="76" t="s">
+        <v>390</v>
+      </c>
+      <c r="I53" s="78">
+        <v>520.79999999999995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="77" t="s">
+        <v>391</v>
+      </c>
+      <c r="B54" s="77"/>
+      <c r="C54" s="77"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="77"/>
+      <c r="H54" s="77"/>
+      <c r="I54" s="79">
+        <v>311.39999999999998</v>
+      </c>
+      <c r="K54" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="77" t="s">
+        <v>392</v>
+      </c>
+      <c r="B55" s="77"/>
+      <c r="C55" s="77"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="77"/>
+      <c r="G55" s="77"/>
+      <c r="H55" s="77"/>
+      <c r="I55" s="79">
+        <v>774.3</v>
+      </c>
+      <c r="K55" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="77" t="s">
+        <v>393</v>
+      </c>
+      <c r="B56" s="77"/>
+      <c r="C56" s="77"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="77"/>
+      <c r="H56" s="77"/>
+      <c r="I56" s="79">
+        <v>277.3</v>
+      </c>
+      <c r="K56" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="77" t="s">
+        <v>394</v>
+      </c>
+      <c r="B57" s="77"/>
+      <c r="C57" s="77"/>
+      <c r="D57" s="77"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="77"/>
+      <c r="H57" s="77"/>
+      <c r="I57" s="79">
+        <v>127</v>
+      </c>
+      <c r="K57" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="77" t="s">
+        <v>395</v>
+      </c>
+      <c r="B58" s="77"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="77"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="77"/>
+      <c r="H58" s="77"/>
+      <c r="I58" s="79">
+        <v>52.9</v>
+      </c>
+      <c r="K58" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="76" t="s">
+        <v>396</v>
+      </c>
+      <c r="I59" s="78">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="76" t="s">
+        <v>397</v>
+      </c>
+      <c r="I60" s="78">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="77" t="s">
+        <v>398</v>
+      </c>
+      <c r="B61" s="77"/>
+      <c r="C61" s="77"/>
+      <c r="D61" s="77"/>
+      <c r="E61" s="77"/>
+      <c r="F61" s="77"/>
+      <c r="G61" s="77"/>
+      <c r="H61" s="77"/>
+      <c r="I61" s="79">
+        <v>159.1</v>
+      </c>
+      <c r="K61" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="77" t="s">
+        <v>399</v>
+      </c>
+      <c r="B62" s="77"/>
+      <c r="C62" s="77"/>
+      <c r="D62" s="77"/>
+      <c r="E62" s="77"/>
+      <c r="F62" s="77"/>
+      <c r="G62" s="77"/>
+      <c r="H62" s="77"/>
+      <c r="I62" s="79">
+        <v>1052.4000000000001</v>
+      </c>
+      <c r="K62" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="75" t="s">
+        <v>400</v>
+      </c>
+      <c r="I63" s="78">
+        <f>I35+I39+I44+SUM(I54:I58)+I61+I62</f>
+        <v>12735.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" t="s">
+        <v>408</v>
+      </c>
+      <c r="I64" s="78">
+        <v>5510.6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="75" t="s">
+        <v>407</v>
+      </c>
+      <c r="I65" s="78">
+        <v>18245.7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="80" t="s">
+        <v>401</v>
+      </c>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18">
+        <f>I63*A69</f>
+        <v>12521.58824699644</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="80"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69">
+        <f>G72/B72</f>
+        <v>0.9832343874014684</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>405</v>
+      </c>
+      <c r="F70" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>403</v>
+      </c>
+      <c r="B71" t="s">
+        <v>404</v>
+      </c>
+      <c r="F71" t="s">
+        <v>403</v>
+      </c>
+      <c r="G71" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="81">
+        <v>2037059</v>
+      </c>
+      <c r="B72" s="81">
+        <v>2131804</v>
+      </c>
+      <c r="F72" s="81">
+        <v>2037059</v>
+      </c>
+      <c r="G72" s="81">
+        <v>2096063</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A74" s="90" t="s">
+        <v>412</v>
+      </c>
+      <c r="B74" s="90"/>
+      <c r="C74" s="90"/>
+      <c r="D74" s="90"/>
+      <c r="E74" s="90"/>
+      <c r="F74" s="90"/>
+      <c r="G74" s="90"/>
+      <c r="H74" s="90"/>
+      <c r="I74" s="90"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75">
+        <v>402</v>
+      </c>
+      <c r="B75" t="s">
+        <v>413</v>
+      </c>
+      <c r="C75" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="63.75" customHeight="1">
+      <c r="A76" s="90" t="s">
+        <v>415</v>
+      </c>
+      <c r="B76" s="90"/>
+      <c r="C76" s="90"/>
+      <c r="D76" s="90"/>
+      <c r="E76" s="90"/>
+      <c r="F76" s="90"/>
+      <c r="G76" s="90"/>
+      <c r="H76" s="90"/>
+      <c r="I76" s="90"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77">
+        <v>480</v>
+      </c>
+      <c r="B77" t="s">
+        <v>416</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A74:I74"/>
+    <mergeCell ref="A76:I76"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A30" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
-    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
-    <xsd:import namespace="7889d872-e2a2-4afb-87bc-97561eced75f"/>
-    <xsd:import namespace="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010005D5DE895D8AE54A972C2171818FD093" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85f6924c4aafd897c3f23384ae9dc35">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="01f24951-2a3e-4fd5-a813-71a74687f653" xmlns:ns3="80a27e12-bb1f-4e28-b766-51f62aa5c67e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="11afb4ea5aef950dd888cd3ab39ccec1" ns2:_="" ns3:_="">
+    <xsd:import namespace="01f24951-2a3e-4fd5-a813-71a74687f653"/>
+    <xsd:import namespace="80a27e12-bb1f-4e28-b766-51f62aa5c67e"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -25140,24 +25933,68 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="01f24951-2a3e-4fd5-a813-71a74687f653" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="18" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="19" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="13" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="15" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7889d872-e2a2-4afb-87bc-97561eced75f" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="80a27e12-bb1f-4e28-b766-51f62aa5c67e" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:description="" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -25176,65 +26013,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:description="" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c9df191c-55f2-496b-9838-9a5abe4742ad" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:description="" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="MediaServiceAutoTags" ma:description="" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="14" nillable="true" ma:displayName="MediaServiceLocation" ma:description="" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="20" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="21" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -25341,32 +26120,52 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
+  <documentManagement/>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F753106C-6C96-40DB-989F-DDACB7271E62}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C53D4B8D-07E4-480A-9102-59E43F1C6BD5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C53D4B8D-07E4-480A-9102-59E43F1C6BD5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7130935E-3288-4243-8272-3335D81BE387}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="01f24951-2a3e-4fd5-a813-71a74687f653"/>
+    <ds:schemaRef ds:uri="80a27e12-bb1f-4e28-b766-51f62aa5c67e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{666A01E7-B2FB-4480-B432-5D73735A58CA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{666A01E7-B2FB-4480-B432-5D73735A58CA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="80a27e12-bb1f-4e28-b766-51f62aa5c67e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01f24951-2a3e-4fd5-a813-71a74687f653"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>